--- a/outputs-HGR-r202/train-g__UBA9502_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__UBA9502_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="592">
   <si>
     <t>Row</t>
   </si>
@@ -1093,6 +1095,705 @@
   </si>
   <si>
     <t>label_UMGS1843_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_139.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS699_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS353_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS866_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS34_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS228_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1843_96.fasta</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1814,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1127,11 +1828,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1139,6 +1844,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11441,4 +12150,6859 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I118"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.140625" customWidth="true"/>
+    <col min="3" max="3" width="23.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.140625" customWidth="true"/>
+    <col min="5" max="5" width="23.140625" customWidth="true"/>
+    <col min="6" max="6" width="23.140625" customWidth="true"/>
+    <col min="7" max="7" width="23.140625" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2">
+        <v>0.56564537235604617</v>
+      </c>
+      <c r="C2">
+        <v>0.24460550483689894</v>
+      </c>
+      <c r="D2">
+        <v>0.16699352486956465</v>
+      </c>
+      <c r="E2">
+        <v>0.018406781356317674</v>
+      </c>
+      <c r="F2">
+        <v>0.0043488165811120501</v>
+      </c>
+      <c r="G2">
+        <v>6.0643823578148679e-14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3">
+        <v>0.36063848521282066</v>
+      </c>
+      <c r="C3">
+        <v>0.24027148490374961</v>
+      </c>
+      <c r="D3">
+        <v>0.25519288830208059</v>
+      </c>
+      <c r="E3">
+        <v>0.14268170214900419</v>
+      </c>
+      <c r="F3">
+        <v>0.0012154394323020173</v>
+      </c>
+      <c r="G3">
+        <v>4.2982546462110767e-14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4">
+        <v>0.57566353496691425</v>
+      </c>
+      <c r="C4">
+        <v>0.27815716694642129</v>
+      </c>
+      <c r="D4">
+        <v>0.11322919023843928</v>
+      </c>
+      <c r="E4">
+        <v>0.030530607402019905</v>
+      </c>
+      <c r="F4">
+        <v>0.0024195004461418793</v>
+      </c>
+      <c r="G4">
+        <v>6.3600848005757309e-14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5">
+        <v>0.32989205479345196</v>
+      </c>
+      <c r="C5">
+        <v>0.39142153283915793</v>
+      </c>
+      <c r="D5">
+        <v>0.23895509816731764</v>
+      </c>
+      <c r="E5">
+        <v>0.038174088653515952</v>
+      </c>
+      <c r="F5">
+        <v>0.001557225546498867</v>
+      </c>
+      <c r="G5">
+        <v>5.7683003766828218e-14</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6">
+        <v>0.5054361875513963</v>
+      </c>
+      <c r="C6">
+        <v>0.22119037144093986</v>
+      </c>
+      <c r="D6">
+        <v>0.24290712763483002</v>
+      </c>
+      <c r="E6">
+        <v>0.025201551864695068</v>
+      </c>
+      <c r="F6">
+        <v>0.0052647615080828021</v>
+      </c>
+      <c r="G6">
+        <v>5.6088596065996657e-14</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7">
+        <v>0.35927701776112186</v>
+      </c>
+      <c r="C7">
+        <v>0.3308229838107985</v>
+      </c>
+      <c r="D7">
+        <v>0.19797851092460797</v>
+      </c>
+      <c r="E7">
+        <v>0.0098023127390115886</v>
+      </c>
+      <c r="F7">
+        <v>0.10211917476440691</v>
+      </c>
+      <c r="G7">
+        <v>5.3102991986202539e-14</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8">
+        <v>0.57323908449749028</v>
+      </c>
+      <c r="C8">
+        <v>0.24486923151725798</v>
+      </c>
+      <c r="D8">
+        <v>0.14620267492087191</v>
+      </c>
+      <c r="E8">
+        <v>0.026969094161817725</v>
+      </c>
+      <c r="F8">
+        <v>0.0087199149025034492</v>
+      </c>
+      <c r="G8">
+        <v>5.8729320651301678e-14</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9">
+        <v>0.59334261367091368</v>
+      </c>
+      <c r="C9">
+        <v>0.26506395954878381</v>
+      </c>
+      <c r="D9">
+        <v>0.10799385038178062</v>
+      </c>
+      <c r="E9">
+        <v>0.021415112272449195</v>
+      </c>
+      <c r="F9">
+        <v>0.012184464126027581</v>
+      </c>
+      <c r="G9">
+        <v>4.524665401164524e-14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10">
+        <v>0.57418927457608837</v>
+      </c>
+      <c r="C10">
+        <v>0.16631948452922843</v>
+      </c>
+      <c r="D10">
+        <v>0.15417019516446817</v>
+      </c>
+      <c r="E10">
+        <v>0.014754671975447687</v>
+      </c>
+      <c r="F10">
+        <v>0.090566373754726134</v>
+      </c>
+      <c r="G10">
+        <v>4.1125169478773128e-14</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <v>0.3647623635028362</v>
+      </c>
+      <c r="C11">
+        <v>0.19175287937257468</v>
+      </c>
+      <c r="D11">
+        <v>0.20238612076980464</v>
+      </c>
+      <c r="E11">
+        <v>0.097706383073866074</v>
+      </c>
+      <c r="F11">
+        <v>0.14339225328086891</v>
+      </c>
+      <c r="G11">
+        <v>4.9644061921359502e-14</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12">
+        <v>0.28288194616162105</v>
+      </c>
+      <c r="C12">
+        <v>0.27532079711921131</v>
+      </c>
+      <c r="D12">
+        <v>0.399850979861542</v>
+      </c>
+      <c r="E12">
+        <v>0.030823572354956957</v>
+      </c>
+      <c r="F12">
+        <v>0.011122704502624967</v>
+      </c>
+      <c r="G12">
+        <v>4.3724346644893786e-14</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13">
+        <v>0.39739560571116511</v>
+      </c>
+      <c r="C13">
+        <v>0.20206296145439476</v>
+      </c>
+      <c r="D13">
+        <v>0.3416650524865833</v>
+      </c>
+      <c r="E13">
+        <v>0.026927138035620458</v>
+      </c>
+      <c r="F13">
+        <v>0.031949242312195127</v>
+      </c>
+      <c r="G13">
+        <v>4.1330711445377965e-14</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14">
+        <v>0.29710399377745345</v>
+      </c>
+      <c r="C14">
+        <v>0.1214832739349757</v>
+      </c>
+      <c r="D14">
+        <v>0.2306297685173874</v>
+      </c>
+      <c r="E14">
+        <v>0.09167834303979247</v>
+      </c>
+      <c r="F14">
+        <v>0.25910462073035939</v>
+      </c>
+      <c r="G14">
+        <v>3.1585699217841224e-14</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15">
+        <v>0.42266430635345736</v>
+      </c>
+      <c r="C15">
+        <v>0.2393726079924344</v>
+      </c>
+      <c r="D15">
+        <v>0.23529088533819459</v>
+      </c>
+      <c r="E15">
+        <v>0.041365346180761861</v>
+      </c>
+      <c r="F15">
+        <v>0.061306854135104734</v>
+      </c>
+      <c r="G15">
+        <v>4.6911168653906012e-14</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16">
+        <v>0.48265937369799322</v>
+      </c>
+      <c r="C16">
+        <v>0.27160815339194749</v>
+      </c>
+      <c r="D16">
+        <v>0.1964479485112135</v>
+      </c>
+      <c r="E16">
+        <v>0.014395283721966414</v>
+      </c>
+      <c r="F16">
+        <v>0.034889240676832689</v>
+      </c>
+      <c r="G16">
+        <v>4.6559355453856672e-14</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17">
+        <v>0.34376772183052218</v>
+      </c>
+      <c r="C17">
+        <v>0.18023393213537986</v>
+      </c>
+      <c r="D17">
+        <v>0.43512833835168557</v>
+      </c>
+      <c r="E17">
+        <v>0.02587754261133959</v>
+      </c>
+      <c r="F17">
+        <v>0.014992465071035592</v>
+      </c>
+      <c r="G17">
+        <v>3.7366365442303645e-14</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18">
+        <v>0.51943397051626949</v>
+      </c>
+      <c r="C18">
+        <v>0.18157690969780221</v>
+      </c>
+      <c r="D18">
+        <v>0.25967451244217049</v>
+      </c>
+      <c r="E18">
+        <v>0.021106883576151272</v>
+      </c>
+      <c r="F18">
+        <v>0.018207723767564785</v>
+      </c>
+      <c r="G18">
+        <v>4.1632988272767376e-14</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19">
+        <v>0.41575655565766167</v>
+      </c>
+      <c r="C19">
+        <v>0.21252765525000358</v>
+      </c>
+      <c r="D19">
+        <v>0.14093002160141732</v>
+      </c>
+      <c r="E19">
+        <v>0.015417974131378845</v>
+      </c>
+      <c r="F19">
+        <v>0.21536779335950362</v>
+      </c>
+      <c r="G19">
+        <v>3.4814621475498368e-14</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20">
+        <v>0.52355442654103257</v>
+      </c>
+      <c r="C20">
+        <v>0.20932649514115742</v>
+      </c>
+      <c r="D20">
+        <v>0.2426946086237094</v>
+      </c>
+      <c r="E20">
+        <v>0.022974897665283201</v>
+      </c>
+      <c r="F20">
+        <v>0.0014495720287528615</v>
+      </c>
+      <c r="G20">
+        <v>6.4696803771413113e-14</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21">
+        <v>0.20768652960363901</v>
+      </c>
+      <c r="C21">
+        <v>0.18252241756405638</v>
+      </c>
+      <c r="D21">
+        <v>0.57196689184539273</v>
+      </c>
+      <c r="E21">
+        <v>0.029345629510632052</v>
+      </c>
+      <c r="F21">
+        <v>0.0084785314762417085</v>
+      </c>
+      <c r="G21">
+        <v>3.8020656164139059e-14</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22">
+        <v>0.30019327949103458</v>
+      </c>
+      <c r="C22">
+        <v>0.18364430830704553</v>
+      </c>
+      <c r="D22">
+        <v>0.29147140764621005</v>
+      </c>
+      <c r="E22">
+        <v>0.026508578337129926</v>
+      </c>
+      <c r="F22">
+        <v>0.19818242621854332</v>
+      </c>
+      <c r="G22">
+        <v>3.6532368486174887e-14</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23">
+        <v>0.36817523923202206</v>
+      </c>
+      <c r="C23">
+        <v>0.1235924132446099</v>
+      </c>
+      <c r="D23">
+        <v>0.11701704447044731</v>
+      </c>
+      <c r="E23">
+        <v>0.0020644472661618678</v>
+      </c>
+      <c r="F23">
+        <v>0.38915085578673508</v>
+      </c>
+      <c r="G23">
+        <v>2.370836628268447e-14</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24">
+        <v>0.34508234937242382</v>
+      </c>
+      <c r="C24">
+        <v>0.21043066181598893</v>
+      </c>
+      <c r="D24">
+        <v>0.33172895543256109</v>
+      </c>
+      <c r="E24">
+        <v>0.024779331294218884</v>
+      </c>
+      <c r="F24">
+        <v>0.087978702084763466</v>
+      </c>
+      <c r="G24">
+        <v>4.3574816259994905e-14</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25">
+        <v>0.30834187259523294</v>
+      </c>
+      <c r="C25">
+        <v>0.18636820393533921</v>
+      </c>
+      <c r="D25">
+        <v>0.063199266329490175</v>
+      </c>
+      <c r="E25">
+        <v>0.42217866622914835</v>
+      </c>
+      <c r="F25">
+        <v>0.019911990910746764</v>
+      </c>
+      <c r="G25">
+        <v>4.2510157875931911e-14</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26">
+        <v>0.14432225684900082</v>
+      </c>
+      <c r="C26">
+        <v>0.12661166567685606</v>
+      </c>
+      <c r="D26">
+        <v>0.37080632745593073</v>
+      </c>
+      <c r="E26">
+        <v>0.0023798583482009836</v>
+      </c>
+      <c r="F26">
+        <v>0.0080625156791813736</v>
+      </c>
+      <c r="G26">
+        <v>0.34781737599083001</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27">
+        <v>0.42333269362308379</v>
+      </c>
+      <c r="C27">
+        <v>0.0899034941309661</v>
+      </c>
+      <c r="D27">
+        <v>0.039224658041835045</v>
+      </c>
+      <c r="E27">
+        <v>0.44548905013688506</v>
+      </c>
+      <c r="F27">
+        <v>0.002050104067173179</v>
+      </c>
+      <c r="G27">
+        <v>5.6804180506549341e-14</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28">
+        <v>0.31985347851618212</v>
+      </c>
+      <c r="C28">
+        <v>0.39624441320576875</v>
+      </c>
+      <c r="D28">
+        <v>0.25365948097450525</v>
+      </c>
+      <c r="E28">
+        <v>0.021903685827138655</v>
+      </c>
+      <c r="F28">
+        <v>0.0083389414763494745</v>
+      </c>
+      <c r="G28">
+        <v>5.5833317707407309e-14</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29">
+        <v>0.28083503822090838</v>
+      </c>
+      <c r="C29">
+        <v>0.47542918687749214</v>
+      </c>
+      <c r="D29">
+        <v>0.20584991041575718</v>
+      </c>
+      <c r="E29">
+        <v>0.03669558642311932</v>
+      </c>
+      <c r="F29">
+        <v>0.001190278062652556</v>
+      </c>
+      <c r="G29">
+        <v>7.0281785146480204e-14</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30">
+        <v>0.23438688984818082</v>
+      </c>
+      <c r="C30">
+        <v>0.52430041650067638</v>
+      </c>
+      <c r="D30">
+        <v>0.22506665542511267</v>
+      </c>
+      <c r="E30">
+        <v>0.010428281055451539</v>
+      </c>
+      <c r="F30">
+        <v>0.0058177571705222558</v>
+      </c>
+      <c r="G30">
+        <v>5.6166219881775279e-14</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31">
+        <v>0.42078629854374011</v>
+      </c>
+      <c r="C31">
+        <v>0.29165857908806347</v>
+      </c>
+      <c r="D31">
+        <v>0.20470107611536659</v>
+      </c>
+      <c r="E31">
+        <v>0.081709540323653518</v>
+      </c>
+      <c r="F31">
+        <v>0.0011445059291243461</v>
+      </c>
+      <c r="G31">
+        <v>5.1878542183428645e-14</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32">
+        <v>0.26034624069008927</v>
+      </c>
+      <c r="C32">
+        <v>0.33381787163380927</v>
+      </c>
+      <c r="D32">
+        <v>0.35743963701603493</v>
+      </c>
+      <c r="E32">
+        <v>0.039398300019505776</v>
+      </c>
+      <c r="F32">
+        <v>0.0089979506404977774</v>
+      </c>
+      <c r="G32">
+        <v>6.3204654899330998e-14</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33">
+        <v>0.33528511559340857</v>
+      </c>
+      <c r="C33">
+        <v>0.26179222664855312</v>
+      </c>
+      <c r="D33">
+        <v>0.37232749063282805</v>
+      </c>
+      <c r="E33">
+        <v>0.02049451702548246</v>
+      </c>
+      <c r="F33">
+        <v>0.010100650099686722</v>
+      </c>
+      <c r="G33">
+        <v>4.123354492391844e-14</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34">
+        <v>0.37495215766979495</v>
+      </c>
+      <c r="C34">
+        <v>0.45182782570369207</v>
+      </c>
+      <c r="D34">
+        <v>0.15862301813970045</v>
+      </c>
+      <c r="E34">
+        <v>0.0035700896332562285</v>
+      </c>
+      <c r="F34">
+        <v>0.01102690885349608</v>
+      </c>
+      <c r="G34">
+        <v>6.001754676319293e-14</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35">
+        <v>0.25718651815653271</v>
+      </c>
+      <c r="C35">
+        <v>0.13959042468499405</v>
+      </c>
+      <c r="D35">
+        <v>0.54217952217246457</v>
+      </c>
+      <c r="E35">
+        <v>0.041239032373173043</v>
+      </c>
+      <c r="F35">
+        <v>0.019804502612799889</v>
+      </c>
+      <c r="G35">
+        <v>3.553135652992848e-14</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36">
+        <v>0.43439294610286106</v>
+      </c>
+      <c r="C36">
+        <v>0.1941585681489843</v>
+      </c>
+      <c r="D36">
+        <v>0.35159973547301354</v>
+      </c>
+      <c r="E36">
+        <v>0.019735791766322851</v>
+      </c>
+      <c r="F36">
+        <v>0.0001129585087805724</v>
+      </c>
+      <c r="G36">
+        <v>3.7596909636864732e-14</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37">
+        <v>0.31120554944817991</v>
+      </c>
+      <c r="C37">
+        <v>0.50299815817837312</v>
+      </c>
+      <c r="D37">
+        <v>0.16934339988559277</v>
+      </c>
+      <c r="E37">
+        <v>0.013130776570528593</v>
+      </c>
+      <c r="F37">
+        <v>0.0033221159172603511</v>
+      </c>
+      <c r="G37">
+        <v>6.5294628013915928e-14</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38">
+        <v>0.1448536571504595</v>
+      </c>
+      <c r="C38">
+        <v>0.12856728620189084</v>
+      </c>
+      <c r="D38">
+        <v>0.70446422548987775</v>
+      </c>
+      <c r="E38">
+        <v>0.021020605308924179</v>
+      </c>
+      <c r="F38">
+        <v>0.0010942258488116396</v>
+      </c>
+      <c r="G38">
+        <v>3.6216617383811122e-14</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39">
+        <v>0.12362714304125264</v>
+      </c>
+      <c r="C39">
+        <v>0.24518763078489492</v>
+      </c>
+      <c r="D39">
+        <v>0.62245358460411571</v>
+      </c>
+      <c r="E39">
+        <v>0.0072461877191468752</v>
+      </c>
+      <c r="F39">
+        <v>0.001485453850548006</v>
+      </c>
+      <c r="G39">
+        <v>4.1995107363966482e-14</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40">
+        <v>0.15745011817614799</v>
+      </c>
+      <c r="C40">
+        <v>0.11929326300874603</v>
+      </c>
+      <c r="D40">
+        <v>0.69380005599044292</v>
+      </c>
+      <c r="E40">
+        <v>0.02920062089779454</v>
+      </c>
+      <c r="F40">
+        <v>0.00025594192682802441</v>
+      </c>
+      <c r="G40">
+        <v>4.0524925778157638e-14</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41">
+        <v>0.14485168149618241</v>
+      </c>
+      <c r="C41">
+        <v>0.17386050002392636</v>
+      </c>
+      <c r="D41">
+        <v>0.65972875583988544</v>
+      </c>
+      <c r="E41">
+        <v>0.020350171090778042</v>
+      </c>
+      <c r="F41">
+        <v>0.0012088915491955577</v>
+      </c>
+      <c r="G41">
+        <v>3.2228328445660017e-14</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42">
+        <v>0.13011348794057676</v>
+      </c>
+      <c r="C42">
+        <v>0.11720345645442558</v>
+      </c>
+      <c r="D42">
+        <v>0.74216438155415254</v>
+      </c>
+      <c r="E42">
+        <v>0.0088003252823481044</v>
+      </c>
+      <c r="F42">
+        <v>0.001718348768465918</v>
+      </c>
+      <c r="G42">
+        <v>3.0929802148292362e-14</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B43">
+        <v>0.34379582730295166</v>
+      </c>
+      <c r="C43">
+        <v>0.091865159778194122</v>
+      </c>
+      <c r="D43">
+        <v>0.44660882082784625</v>
+      </c>
+      <c r="E43">
+        <v>0.11387896139782623</v>
+      </c>
+      <c r="F43">
+        <v>0.0038512306931479928</v>
+      </c>
+      <c r="G43">
+        <v>3.3641013016066847e-14</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44">
+        <v>0.10845682269246237</v>
+      </c>
+      <c r="C44">
+        <v>0.13446847324565611</v>
+      </c>
+      <c r="D44">
+        <v>0.73387132296122659</v>
+      </c>
+      <c r="E44">
+        <v>0.022424120552241914</v>
+      </c>
+      <c r="F44">
+        <v>0.00077926054838454756</v>
+      </c>
+      <c r="G44">
+        <v>2.8594488113012656e-14</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45">
+        <v>0.17935942515059655</v>
+      </c>
+      <c r="C45">
+        <v>0.16020168976264884</v>
+      </c>
+      <c r="D45">
+        <v>0.63354677119174074</v>
+      </c>
+      <c r="E45">
+        <v>0.013148359323278579</v>
+      </c>
+      <c r="F45">
+        <v>0.013743754571699374</v>
+      </c>
+      <c r="G45">
+        <v>3.5730410973530395e-14</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46">
+        <v>0.11826540293120832</v>
+      </c>
+      <c r="C46">
+        <v>0.20750173451693743</v>
+      </c>
+      <c r="D46">
+        <v>0.61494109866237945</v>
+      </c>
+      <c r="E46">
+        <v>0.03134971899573815</v>
+      </c>
+      <c r="F46">
+        <v>0.027942044893707538</v>
+      </c>
+      <c r="G46">
+        <v>2.9241335634625071e-14</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47">
+        <v>0.29887994942274498</v>
+      </c>
+      <c r="C47">
+        <v>0.13990801888492113</v>
+      </c>
+      <c r="D47">
+        <v>0.52465221438302823</v>
+      </c>
+      <c r="E47">
+        <v>0.018342724864099998</v>
+      </c>
+      <c r="F47">
+        <v>0.018217092445165766</v>
+      </c>
+      <c r="G47">
+        <v>3.9730452625870301e-14</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48">
+        <v>0.23583567153645013</v>
+      </c>
+      <c r="C48">
+        <v>0.1144113039605357</v>
+      </c>
+      <c r="D48">
+        <v>0.60871913260313393</v>
+      </c>
+      <c r="E48">
+        <v>0.037510652336002329</v>
+      </c>
+      <c r="F48">
+        <v>0.003523239563845028</v>
+      </c>
+      <c r="G48">
+        <v>3.2720075255333838e-14</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49">
+        <v>0.26325500658299222</v>
+      </c>
+      <c r="C49">
+        <v>0.11625543926431264</v>
+      </c>
+      <c r="D49">
+        <v>0.53653487539682343</v>
+      </c>
+      <c r="E49">
+        <v>0.060408508885465687</v>
+      </c>
+      <c r="F49">
+        <v>0.023546169870367561</v>
+      </c>
+      <c r="G49">
+        <v>3.8297647113584143e-14</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B50">
+        <v>0.13569345384580764</v>
+      </c>
+      <c r="C50">
+        <v>0.14320891509666411</v>
+      </c>
+      <c r="D50">
+        <v>0.6655847203014652</v>
+      </c>
+      <c r="E50">
+        <v>0.041555875781156631</v>
+      </c>
+      <c r="F50">
+        <v>0.013957034974878352</v>
+      </c>
+      <c r="G50">
+        <v>2.805108521870076e-14</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51">
+        <v>0.31489451356097631</v>
+      </c>
+      <c r="C51">
+        <v>0.13912103190106428</v>
+      </c>
+      <c r="D51">
+        <v>0.3670633909917429</v>
+      </c>
+      <c r="E51">
+        <v>0.03434953012119777</v>
+      </c>
+      <c r="F51">
+        <v>0.14457153342498733</v>
+      </c>
+      <c r="G51">
+        <v>3.1562138089214678e-14</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52">
+        <v>0.29931767964788203</v>
+      </c>
+      <c r="C52">
+        <v>0.15237992851571397</v>
+      </c>
+      <c r="D52">
+        <v>0.43612355621016768</v>
+      </c>
+      <c r="E52">
+        <v>0.03036800265466582</v>
+      </c>
+      <c r="F52">
+        <v>0.081810832971534755</v>
+      </c>
+      <c r="G52">
+        <v>3.5679831992698686e-14</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53">
+        <v>0.34573018361684327</v>
+      </c>
+      <c r="C53">
+        <v>0.14702863713450323</v>
+      </c>
+      <c r="D53">
+        <v>0.46865242710604493</v>
+      </c>
+      <c r="E53">
+        <v>0.015847351919394952</v>
+      </c>
+      <c r="F53">
+        <v>0.022741400223179168</v>
+      </c>
+      <c r="G53">
+        <v>3.434658269567075e-14</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B54">
+        <v>0.24653206382134696</v>
+      </c>
+      <c r="C54">
+        <v>0.13011364796297606</v>
+      </c>
+      <c r="D54">
+        <v>0.61122387950724177</v>
+      </c>
+      <c r="E54">
+        <v>0.0079433461576336115</v>
+      </c>
+      <c r="F54">
+        <v>0.0041870625507730505</v>
+      </c>
+      <c r="G54">
+        <v>2.8515211201824552e-14</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55">
+        <v>0.3083147610120846</v>
+      </c>
+      <c r="C55">
+        <v>0.13794810722823744</v>
+      </c>
+      <c r="D55">
+        <v>0.2722943943306782</v>
+      </c>
+      <c r="E55">
+        <v>0.062934898936063868</v>
+      </c>
+      <c r="F55">
+        <v>0.21850783849290445</v>
+      </c>
+      <c r="G55">
+        <v>3.1393229350478921e-14</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B56">
+        <v>0.17633154248682906</v>
+      </c>
+      <c r="C56">
+        <v>0.17328517149647482</v>
+      </c>
+      <c r="D56">
+        <v>0.60129832446491682</v>
+      </c>
+      <c r="E56">
+        <v>0.046290420082355774</v>
+      </c>
+      <c r="F56">
+        <v>0.0027945414693767577</v>
+      </c>
+      <c r="G56">
+        <v>4.6823696406504448e-14</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57">
+        <v>0.3733347307838194</v>
+      </c>
+      <c r="C57">
+        <v>0.20131361038903409</v>
+      </c>
+      <c r="D57">
+        <v>0.30554584233974713</v>
+      </c>
+      <c r="E57">
+        <v>0.011235188100382515</v>
+      </c>
+      <c r="F57">
+        <v>0.108570628386967</v>
+      </c>
+      <c r="G57">
+        <v>5.0118444505236438e-14</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B58">
+        <v>0.28626888946459672</v>
+      </c>
+      <c r="C58">
+        <v>0.12087585582178399</v>
+      </c>
+      <c r="D58">
+        <v>0.58690264281249216</v>
+      </c>
+      <c r="E58">
+        <v>0.0039353067109579891</v>
+      </c>
+      <c r="F58">
+        <v>0.0020173051901173026</v>
+      </c>
+      <c r="G58">
+        <v>5.1612133319717532e-14</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59">
+        <v>0.048947985806686363</v>
+      </c>
+      <c r="C59">
+        <v>0.13710479726711153</v>
+      </c>
+      <c r="D59">
+        <v>0.0098350574489194532</v>
+      </c>
+      <c r="E59">
+        <v>0.71841411229898244</v>
+      </c>
+      <c r="F59">
+        <v>0.08569804717826314</v>
+      </c>
+      <c r="G59">
+        <v>3.7065482502038173e-14</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B60">
+        <v>0.065986172757143691</v>
+      </c>
+      <c r="C60">
+        <v>0.14373134196964396</v>
+      </c>
+      <c r="D60">
+        <v>0.0069037212006751317</v>
+      </c>
+      <c r="E60">
+        <v>0.62417256119281472</v>
+      </c>
+      <c r="F60">
+        <v>0.15920620287969162</v>
+      </c>
+      <c r="G60">
+        <v>3.0725733044787076e-14</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B61">
+        <v>0.076017298431922814</v>
+      </c>
+      <c r="C61">
+        <v>0.055332725743961225</v>
+      </c>
+      <c r="D61">
+        <v>0.013434023583634287</v>
+      </c>
+      <c r="E61">
+        <v>0.81504629680338414</v>
+      </c>
+      <c r="F61">
+        <v>0.040169655437075215</v>
+      </c>
+      <c r="G61">
+        <v>2.227311321672134e-14</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B62">
+        <v>0.21728188845714425</v>
+      </c>
+      <c r="C62">
+        <v>0.082732880708379725</v>
+      </c>
+      <c r="D62">
+        <v>0.059694512178931992</v>
+      </c>
+      <c r="E62">
+        <v>0.5612226646623798</v>
+      </c>
+      <c r="F62">
+        <v>0.079068053993138071</v>
+      </c>
+      <c r="G62">
+        <v>2.6236288652607016e-14</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B63">
+        <v>0.057270547415418246</v>
+      </c>
+      <c r="C63">
+        <v>0.046894429626961533</v>
+      </c>
+      <c r="D63">
+        <v>0.012240462908729589</v>
+      </c>
+      <c r="E63">
+        <v>0.27452997211797503</v>
+      </c>
+      <c r="F63">
+        <v>0.60906458793089313</v>
+      </c>
+      <c r="G63">
+        <v>2.2519524037432597e-14</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64">
+        <v>0.06013305172872354</v>
+      </c>
+      <c r="C64">
+        <v>0.04320700805641399</v>
+      </c>
+      <c r="D64">
+        <v>0.016336188843505395</v>
+      </c>
+      <c r="E64">
+        <v>0.076934726562008393</v>
+      </c>
+      <c r="F64">
+        <v>0.80338902480932628</v>
+      </c>
+      <c r="G64">
+        <v>2.2348436389270493e-14</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B65">
+        <v>0.041079544265598081</v>
+      </c>
+      <c r="C65">
+        <v>0.089458860382766736</v>
+      </c>
+      <c r="D65">
+        <v>0.010901077650710916</v>
+      </c>
+      <c r="E65">
+        <v>0.80415668776419236</v>
+      </c>
+      <c r="F65">
+        <v>0.054403829936708774</v>
+      </c>
+      <c r="G65">
+        <v>2.3191094102941036e-14</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B66">
+        <v>0.049572887134357868</v>
+      </c>
+      <c r="C66">
+        <v>0.13829659793240748</v>
+      </c>
+      <c r="D66">
+        <v>0.021899012154079914</v>
+      </c>
+      <c r="E66">
+        <v>0.69582734172391858</v>
+      </c>
+      <c r="F66">
+        <v>0.094404161055198291</v>
+      </c>
+      <c r="G66">
+        <v>3.7674612149744248e-14</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B67">
+        <v>0.068784233749702647</v>
+      </c>
+      <c r="C67">
+        <v>0.0084697697976763887</v>
+      </c>
+      <c r="D67">
+        <v>0.007655842189597222</v>
+      </c>
+      <c r="E67">
+        <v>0.0050858969979913106</v>
+      </c>
+      <c r="F67">
+        <v>0.91000425726501022</v>
+      </c>
+      <c r="G67">
+        <v>2.2223959718566607e-14</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B68">
+        <v>0.088550465279730636</v>
+      </c>
+      <c r="C68">
+        <v>0.024123890274671347</v>
+      </c>
+      <c r="D68">
+        <v>0.055881235773800449</v>
+      </c>
+      <c r="E68">
+        <v>0.0043607895886452822</v>
+      </c>
+      <c r="F68">
+        <v>0.82708361908312988</v>
+      </c>
+      <c r="G68">
+        <v>2.2420575335512323e-14</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69">
+        <v>0.014900757373770867</v>
+      </c>
+      <c r="C69">
+        <v>0.010830249743725592</v>
+      </c>
+      <c r="D69">
+        <v>0.042780472744769454</v>
+      </c>
+      <c r="E69">
+        <v>0.0016939321123086533</v>
+      </c>
+      <c r="F69">
+        <v>0.92979458802540327</v>
+      </c>
+      <c r="G69">
+        <v>2.2237495624726799e-14</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B70">
+        <v>0.089764775069629363</v>
+      </c>
+      <c r="C70">
+        <v>0.017179942144456194</v>
+      </c>
+      <c r="D70">
+        <v>0.15564203438880247</v>
+      </c>
+      <c r="E70">
+        <v>0.021696981990183807</v>
+      </c>
+      <c r="F70">
+        <v>0.71571626640690589</v>
+      </c>
+      <c r="G70">
+        <v>2.2326812560372621e-14</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B71">
+        <v>0.1409758519872151</v>
+      </c>
+      <c r="C71">
+        <v>0.13643676792442105</v>
+      </c>
+      <c r="D71">
+        <v>0.2393542560471015</v>
+      </c>
+      <c r="E71">
+        <v>0.022556361609912645</v>
+      </c>
+      <c r="F71">
+        <v>0.46067676243130479</v>
+      </c>
+      <c r="G71">
+        <v>4.5056267487398098e-14</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72">
+        <v>0.04927985773620952</v>
+      </c>
+      <c r="C72">
+        <v>0.0079438438086584483</v>
+      </c>
+      <c r="D72">
+        <v>0.42326215940296918</v>
+      </c>
+      <c r="E72">
+        <v>0.51561988112524504</v>
+      </c>
+      <c r="F72">
+        <v>0.0038942579268956799</v>
+      </c>
+      <c r="G72">
+        <v>2.2270656573525599e-14</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B73">
+        <v>0.031502181080886787</v>
+      </c>
+      <c r="C73">
+        <v>0.064700002070694054</v>
+      </c>
+      <c r="D73">
+        <v>0.73685804931745147</v>
+      </c>
+      <c r="E73">
+        <v>0.0067889280324449639</v>
+      </c>
+      <c r="F73">
+        <v>0.16015083949849074</v>
+      </c>
+      <c r="G73">
+        <v>3.2123069839879862e-14</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74">
+        <v>0.081390757251434881</v>
+      </c>
+      <c r="C74">
+        <v>0.029729433968271334</v>
+      </c>
+      <c r="D74">
+        <v>0.010154305255026636</v>
+      </c>
+      <c r="E74">
+        <v>0.2736149141624214</v>
+      </c>
+      <c r="F74">
+        <v>0.60511058936282325</v>
+      </c>
+      <c r="G74">
+        <v>2.2449296635690401e-14</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75">
+        <v>0.06185017318996492</v>
+      </c>
+      <c r="C75">
+        <v>0.057235858183861558</v>
+      </c>
+      <c r="D75">
+        <v>0.013147363978651586</v>
+      </c>
+      <c r="E75">
+        <v>0.070243992883346346</v>
+      </c>
+      <c r="F75">
+        <v>0.79752261176415318</v>
+      </c>
+      <c r="G75">
+        <v>2.2369663223014551e-14</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76">
+        <v>0.03339269668580782</v>
+      </c>
+      <c r="C76">
+        <v>0.050938316308016103</v>
+      </c>
+      <c r="D76">
+        <v>0.003288601529661055</v>
+      </c>
+      <c r="E76">
+        <v>0.0097959249074610101</v>
+      </c>
+      <c r="F76">
+        <v>0.90258446056903174</v>
+      </c>
+      <c r="G76">
+        <v>2.2254931574390522e-14</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B77">
+        <v>0.031779863708591927</v>
+      </c>
+      <c r="C77">
+        <v>0.016613119654966872</v>
+      </c>
+      <c r="D77">
+        <v>0.0059069192118492535</v>
+      </c>
+      <c r="E77">
+        <v>0.0093661899235593111</v>
+      </c>
+      <c r="F77">
+        <v>0.93633390750101042</v>
+      </c>
+      <c r="G77">
+        <v>2.2237222164858254e-14</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78">
+        <v>0.070311960605490331</v>
+      </c>
+      <c r="C78">
+        <v>0.052716341917067262</v>
+      </c>
+      <c r="D78">
+        <v>0.011391549125823196</v>
+      </c>
+      <c r="E78">
+        <v>0.145482095677546</v>
+      </c>
+      <c r="F78">
+        <v>0.7200980526740508</v>
+      </c>
+      <c r="G78">
+        <v>2.241578653719699e-14</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B79">
+        <v>0.053659664931077974</v>
+      </c>
+      <c r="C79">
+        <v>0.031844917517096227</v>
+      </c>
+      <c r="D79">
+        <v>0.0082264896906165189</v>
+      </c>
+      <c r="E79">
+        <v>0.029748744956046128</v>
+      </c>
+      <c r="F79">
+        <v>0.87652018290514089</v>
+      </c>
+      <c r="G79">
+        <v>2.2290075362571069e-14</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80">
+        <v>0.020958587816464449</v>
+      </c>
+      <c r="C80">
+        <v>0.028890947029576796</v>
+      </c>
+      <c r="D80">
+        <v>0.0060228796019162339</v>
+      </c>
+      <c r="E80">
+        <v>0.015452719985785873</v>
+      </c>
+      <c r="F80">
+        <v>0.92867486556623446</v>
+      </c>
+      <c r="G80">
+        <v>2.2249101255881939e-14</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B81">
+        <v>0.034885333554409301</v>
+      </c>
+      <c r="C81">
+        <v>0.027092025179591486</v>
+      </c>
+      <c r="D81">
+        <v>0.0091068879233722078</v>
+      </c>
+      <c r="E81">
+        <v>0.0077937138786401345</v>
+      </c>
+      <c r="F81">
+        <v>0.92112203946396465</v>
+      </c>
+      <c r="G81">
+        <v>2.2254288443713838e-14</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B82">
+        <v>0.084941812873466457</v>
+      </c>
+      <c r="C82">
+        <v>0.040453347346474586</v>
+      </c>
+      <c r="D82">
+        <v>0.013618155524705272</v>
+      </c>
+      <c r="E82">
+        <v>0.017728591138808678</v>
+      </c>
+      <c r="F82">
+        <v>0.84325809311652278</v>
+      </c>
+      <c r="G82">
+        <v>2.2314908193733278e-14</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83">
+        <v>0.018781937919237299</v>
+      </c>
+      <c r="C83">
+        <v>0.01406857757543864</v>
+      </c>
+      <c r="D83">
+        <v>0.0068671265065309486</v>
+      </c>
+      <c r="E83">
+        <v>0.0074237259783843917</v>
+      </c>
+      <c r="F83">
+        <v>0.95285863202038656</v>
+      </c>
+      <c r="G83">
+        <v>2.2227725313179142e-14</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B84">
+        <v>0.068461385168100783</v>
+      </c>
+      <c r="C84">
+        <v>0.047784648836536693</v>
+      </c>
+      <c r="D84">
+        <v>0.028617510614665487</v>
+      </c>
+      <c r="E84">
+        <v>0.011778435067592958</v>
+      </c>
+      <c r="F84">
+        <v>0.84335802031308171</v>
+      </c>
+      <c r="G84">
+        <v>2.2358109755305348e-14</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85">
+        <v>0.042359391738730025</v>
+      </c>
+      <c r="C85">
+        <v>0.017582368821446228</v>
+      </c>
+      <c r="D85">
+        <v>0.005049519647957996</v>
+      </c>
+      <c r="E85">
+        <v>0.0051860723169318132</v>
+      </c>
+      <c r="F85">
+        <v>0.92982264747491172</v>
+      </c>
+      <c r="G85">
+        <v>2.2237584898616815e-14</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86">
+        <v>0.04357540111585366</v>
+      </c>
+      <c r="C86">
+        <v>0.023175824918259879</v>
+      </c>
+      <c r="D86">
+        <v>0.010584613426843857</v>
+      </c>
+      <c r="E86">
+        <v>0.0022754848688935243</v>
+      </c>
+      <c r="F86">
+        <v>0.92038867567012683</v>
+      </c>
+      <c r="G86">
+        <v>2.2251149244749591e-14</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87">
+        <v>0.09830868575450831</v>
+      </c>
+      <c r="C87">
+        <v>0.061545690430473282</v>
+      </c>
+      <c r="D87">
+        <v>0.035129759848955645</v>
+      </c>
+      <c r="E87">
+        <v>0.0095507844157805485</v>
+      </c>
+      <c r="F87">
+        <v>0.7954650795502598</v>
+      </c>
+      <c r="G87">
+        <v>2.2462127105249836e-14</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B88">
+        <v>0.11040932688047385</v>
+      </c>
+      <c r="C88">
+        <v>0.032610868989832779</v>
+      </c>
+      <c r="D88">
+        <v>0.056167127144985396</v>
+      </c>
+      <c r="E88">
+        <v>0.019957671129518975</v>
+      </c>
+      <c r="F88">
+        <v>0.78085500585516665</v>
+      </c>
+      <c r="G88">
+        <v>2.2342876117696311e-14</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B89">
+        <v>0.036140742805654387</v>
+      </c>
+      <c r="C89">
+        <v>0.013893882485553772</v>
+      </c>
+      <c r="D89">
+        <v>0.013866057011087089</v>
+      </c>
+      <c r="E89">
+        <v>0.0057772440223723227</v>
+      </c>
+      <c r="F89">
+        <v>0.93032207367531017</v>
+      </c>
+      <c r="G89">
+        <v>2.224127415488459e-14</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B90">
+        <v>0.040180497458150159</v>
+      </c>
+      <c r="C90">
+        <v>0.011352095025321489</v>
+      </c>
+      <c r="D90">
+        <v>0.024381351856863603</v>
+      </c>
+      <c r="E90">
+        <v>0.020874837037815074</v>
+      </c>
+      <c r="F90">
+        <v>0.90321121862182729</v>
+      </c>
+      <c r="G90">
+        <v>2.2290570844458778e-14</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91">
+        <v>0.023771634729715219</v>
+      </c>
+      <c r="C91">
+        <v>0.027219665707175</v>
+      </c>
+      <c r="D91">
+        <v>0.0096040864116722791</v>
+      </c>
+      <c r="E91">
+        <v>0.0049550986127409715</v>
+      </c>
+      <c r="F91">
+        <v>0.013246679389873678</v>
+      </c>
+      <c r="G91">
+        <v>0.92120283514882284</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B92">
+        <v>0.020920508618496033</v>
+      </c>
+      <c r="C92">
+        <v>0.002590205519552346</v>
+      </c>
+      <c r="D92">
+        <v>0.0039888284580257977</v>
+      </c>
+      <c r="E92">
+        <v>9.4838200963539314e-07</v>
+      </c>
+      <c r="F92">
+        <v>8.1921286312546876e-06</v>
+      </c>
+      <c r="G92">
+        <v>0.97249131689328494</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93">
+        <v>0.015961403204559931</v>
+      </c>
+      <c r="C93">
+        <v>0.0032095101785074155</v>
+      </c>
+      <c r="D93">
+        <v>0.00084687637318607459</v>
+      </c>
+      <c r="E93">
+        <v>2.0616369889753413e-06</v>
+      </c>
+      <c r="F93">
+        <v>5.3640762778428717e-09</v>
+      </c>
+      <c r="G93">
+        <v>0.97998014324268135</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B94">
+        <v>0.0060109471320139579</v>
+      </c>
+      <c r="C94">
+        <v>0.0026860127844253495</v>
+      </c>
+      <c r="D94">
+        <v>0.0044446344785045045</v>
+      </c>
+      <c r="E94">
+        <v>5.1717153086688407e-08</v>
+      </c>
+      <c r="F94">
+        <v>1.1924330661661537e-06</v>
+      </c>
+      <c r="G94">
+        <v>0.98685716145483693</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95">
+        <v>0.012306273174626126</v>
+      </c>
+      <c r="C95">
+        <v>0.00017540268413586201</v>
+      </c>
+      <c r="D95">
+        <v>0.0011879011426115325</v>
+      </c>
+      <c r="E95">
+        <v>1.4853469343682688e-07</v>
+      </c>
+      <c r="F95">
+        <v>1.6750007773798055e-08</v>
+      </c>
+      <c r="G95">
+        <v>0.98633025771392524</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B96">
+        <v>0.0015205401723152661</v>
+      </c>
+      <c r="C96">
+        <v>0.0043161405585116636</v>
+      </c>
+      <c r="D96">
+        <v>0.00040374685416895629</v>
+      </c>
+      <c r="E96">
+        <v>3.259836622451028e-09</v>
+      </c>
+      <c r="F96">
+        <v>5.9112223266714974e-07</v>
+      </c>
+      <c r="G96">
+        <v>0.99375897803293478</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97">
+        <v>0.069774814475918628</v>
+      </c>
+      <c r="C97">
+        <v>6.0553007118992646e-05</v>
+      </c>
+      <c r="D97">
+        <v>0.00045662951980921277</v>
+      </c>
+      <c r="E97">
+        <v>3.7733338712491596e-10</v>
+      </c>
+      <c r="F97">
+        <v>1.7255725785285878e-05</v>
+      </c>
+      <c r="G97">
+        <v>0.92969074689403453</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B98">
+        <v>0.011261612919762439</v>
+      </c>
+      <c r="C98">
+        <v>0.012483579244488197</v>
+      </c>
+      <c r="D98">
+        <v>0.13394730413156469</v>
+      </c>
+      <c r="E98">
+        <v>0.00016833388103325723</v>
+      </c>
+      <c r="F98">
+        <v>5.3166722451301337e-05</v>
+      </c>
+      <c r="G98">
+        <v>0.84208600310070014</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B99">
+        <v>0.0019142773786651919</v>
+      </c>
+      <c r="C99">
+        <v>0.00094932657930431503</v>
+      </c>
+      <c r="D99">
+        <v>0.0091912815369099253</v>
+      </c>
+      <c r="E99">
+        <v>8.160032705935648e-07</v>
+      </c>
+      <c r="F99">
+        <v>3.1228557326946048e-07</v>
+      </c>
+      <c r="G99">
+        <v>0.98794398621627677</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B100">
+        <v>0.0087941938089464416</v>
+      </c>
+      <c r="C100">
+        <v>0.012128131966148096</v>
+      </c>
+      <c r="D100">
+        <v>0.0014393943745200114</v>
+      </c>
+      <c r="E100">
+        <v>0.0013506158553779608</v>
+      </c>
+      <c r="F100">
+        <v>4.589336502487968e-06</v>
+      </c>
+      <c r="G100">
+        <v>0.97628307465850506</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B101">
+        <v>0.0240879805116615</v>
+      </c>
+      <c r="C101">
+        <v>0.016230950569647292</v>
+      </c>
+      <c r="D101">
+        <v>0.012617177508104579</v>
+      </c>
+      <c r="E101">
+        <v>0.0043402176229589305</v>
+      </c>
+      <c r="F101">
+        <v>0.0013787024896655699</v>
+      </c>
+      <c r="G101">
+        <v>0.94134497129796213</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B102">
+        <v>0.010240147892713445</v>
+      </c>
+      <c r="C102">
+        <v>0.014639437460658704</v>
+      </c>
+      <c r="D102">
+        <v>0.0064475228673361697</v>
+      </c>
+      <c r="E102">
+        <v>0.0023043649830804713</v>
+      </c>
+      <c r="F102">
+        <v>4.7483788574676396e-05</v>
+      </c>
+      <c r="G102">
+        <v>0.96632104300763655</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B103">
+        <v>0.039451323787344172</v>
+      </c>
+      <c r="C103">
+        <v>0.02214503829913542</v>
+      </c>
+      <c r="D103">
+        <v>0.032287220674115574</v>
+      </c>
+      <c r="E103">
+        <v>0.0046645121537585259</v>
+      </c>
+      <c r="F103">
+        <v>0.0082950977032240792</v>
+      </c>
+      <c r="G103">
+        <v>0.8931568073824222</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B104">
+        <v>0.030922810685625579</v>
+      </c>
+      <c r="C104">
+        <v>0.032348926571552035</v>
+      </c>
+      <c r="D104">
+        <v>0.076486742762784082</v>
+      </c>
+      <c r="E104">
+        <v>0.0089914888511762291</v>
+      </c>
+      <c r="F104">
+        <v>0.0071609531221178751</v>
+      </c>
+      <c r="G104">
+        <v>0.84408907800674415</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B105">
+        <v>0.014485215809602988</v>
+      </c>
+      <c r="C105">
+        <v>0.033049868691123141</v>
+      </c>
+      <c r="D105">
+        <v>0.023445516523528047</v>
+      </c>
+      <c r="E105">
+        <v>0.0030046181646892242</v>
+      </c>
+      <c r="F105">
+        <v>6.632106395368274e-05</v>
+      </c>
+      <c r="G105">
+        <v>0.92594845974710294</v>
+      </c>
+      <c r="H105">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B106">
+        <v>0.031243186931860071</v>
+      </c>
+      <c r="C106">
+        <v>0.022873035343714331</v>
+      </c>
+      <c r="D106">
+        <v>0.077535345614348189</v>
+      </c>
+      <c r="E106">
+        <v>0.0053586251517273526</v>
+      </c>
+      <c r="F106">
+        <v>0.0050703110530346419</v>
+      </c>
+      <c r="G106">
+        <v>0.85791949590531535</v>
+      </c>
+      <c r="H106">
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B107">
+        <v>0.025988377695873824</v>
+      </c>
+      <c r="C107">
+        <v>0.010709365509383064</v>
+      </c>
+      <c r="D107">
+        <v>0.013295131134126901</v>
+      </c>
+      <c r="E107">
+        <v>0.00036796159941558334</v>
+      </c>
+      <c r="F107">
+        <v>0.0011493425588084243</v>
+      </c>
+      <c r="G107">
+        <v>0.94848982150239225</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B108">
+        <v>0.01505471194803046</v>
+      </c>
+      <c r="C108">
+        <v>0.0091441861617241743</v>
+      </c>
+      <c r="D108">
+        <v>0.0044328119304499385</v>
+      </c>
+      <c r="E108">
+        <v>4.3072965306889764e-05</v>
+      </c>
+      <c r="F108">
+        <v>2.1406035965600064e-05</v>
+      </c>
+      <c r="G108">
+        <v>0.97130381095852292</v>
+      </c>
+      <c r="H108">
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B109">
+        <v>0.014138338200586943</v>
+      </c>
+      <c r="C109">
+        <v>0.010018658710483117</v>
+      </c>
+      <c r="D109">
+        <v>0.0061968462731334176</v>
+      </c>
+      <c r="E109">
+        <v>0.00010749553314393415</v>
+      </c>
+      <c r="F109">
+        <v>0.00025906246972069486</v>
+      </c>
+      <c r="G109">
+        <v>0.96927959881293191</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B110">
+        <v>0.0035655739668833206</v>
+      </c>
+      <c r="C110">
+        <v>0.050516273538797341</v>
+      </c>
+      <c r="D110">
+        <v>0.0092162934325789557</v>
+      </c>
+      <c r="E110">
+        <v>5.6346212293584146e-05</v>
+      </c>
+      <c r="F110">
+        <v>6.3184532147676359e-06</v>
+      </c>
+      <c r="G110">
+        <v>0.93663919439623211</v>
+      </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B111">
+        <v>0.037266275702874746</v>
+      </c>
+      <c r="C111">
+        <v>0.0043688495692724367</v>
+      </c>
+      <c r="D111">
+        <v>0.014974263992988093</v>
+      </c>
+      <c r="E111">
+        <v>0.00010031825155828824</v>
+      </c>
+      <c r="F111">
+        <v>0.00041754805386031026</v>
+      </c>
+      <c r="G111">
+        <v>0.94287274442944613</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B112">
+        <v>0.0072982750856015726</v>
+      </c>
+      <c r="C112">
+        <v>0.013544090959867298</v>
+      </c>
+      <c r="D112">
+        <v>0.032065982519433135</v>
+      </c>
+      <c r="E112">
+        <v>0.0005345407061798504</v>
+      </c>
+      <c r="F112">
+        <v>1.4671264351524479e-06</v>
+      </c>
+      <c r="G112">
+        <v>0.9465556436024829</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113">
+        <v>0.010496276239291794</v>
+      </c>
+      <c r="C113">
+        <v>0.0018691210842828535</v>
+      </c>
+      <c r="D113">
+        <v>0.012368588237414926</v>
+      </c>
+      <c r="E113">
+        <v>3.8432345396323522e-05</v>
+      </c>
+      <c r="F113">
+        <v>3.3122283822593451e-08</v>
+      </c>
+      <c r="G113">
+        <v>0.97522754897133024</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B114">
+        <v>0.005026000206426063</v>
+      </c>
+      <c r="C114">
+        <v>0.015445918977331066</v>
+      </c>
+      <c r="D114">
+        <v>0.00046470806638957416</v>
+      </c>
+      <c r="E114">
+        <v>3.0545314338596352e-06</v>
+      </c>
+      <c r="F114">
+        <v>1.5857547418285446e-07</v>
+      </c>
+      <c r="G114">
+        <v>0.97906015964294535</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B115">
+        <v>0.024520769789735684</v>
+      </c>
+      <c r="C115">
+        <v>0.014638395567134931</v>
+      </c>
+      <c r="D115">
+        <v>0.016129370396953578</v>
+      </c>
+      <c r="E115">
+        <v>0.00021677342001216084</v>
+      </c>
+      <c r="F115">
+        <v>0.00038809679522136591</v>
+      </c>
+      <c r="G115">
+        <v>0.94410659403094233</v>
+      </c>
+      <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B116">
+        <v>0.018015365203732307</v>
+      </c>
+      <c r="C116">
+        <v>0.0027873386984720999</v>
+      </c>
+      <c r="D116">
+        <v>0.0072211314502135483</v>
+      </c>
+      <c r="E116">
+        <v>5.0117639750286461e-06</v>
+      </c>
+      <c r="F116">
+        <v>3.8614145873728822e-06</v>
+      </c>
+      <c r="G116">
+        <v>0.97196729146901972</v>
+      </c>
+      <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B117">
+        <v>0.0035083991812550237</v>
+      </c>
+      <c r="C117">
+        <v>0.0070734762555575868</v>
+      </c>
+      <c r="D117">
+        <v>0.043711359358869516</v>
+      </c>
+      <c r="E117">
+        <v>9.1002737727753432e-05</v>
+      </c>
+      <c r="F117">
+        <v>4.8536308915119881e-06</v>
+      </c>
+      <c r="G117">
+        <v>0.94561090883569865</v>
+      </c>
+      <c r="H117">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B118">
+        <v>0.0072268371567067438</v>
+      </c>
+      <c r="C118">
+        <v>0.012767400989316708</v>
+      </c>
+      <c r="D118">
+        <v>0.022828984745416767</v>
+      </c>
+      <c r="E118">
+        <v>0.00016596586486917537</v>
+      </c>
+      <c r="F118">
+        <v>7.2162617904190725e-06</v>
+      </c>
+      <c r="G118">
+        <v>0.95700359498190013</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I117"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.140625" customWidth="true"/>
+    <col min="3" max="3" width="23.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.140625" customWidth="true"/>
+    <col min="5" max="5" width="23.140625" customWidth="true"/>
+    <col min="6" max="6" width="23.140625" customWidth="true"/>
+    <col min="7" max="7" width="23.140625" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2">
+        <v>0.44825153512223292</v>
+      </c>
+      <c r="C2">
+        <v>0.288310458295719</v>
+      </c>
+      <c r="D2">
+        <v>0.22330379936411807</v>
+      </c>
+      <c r="E2">
+        <v>0.030817732043147944</v>
+      </c>
+      <c r="F2">
+        <v>0.0093164751747256309</v>
+      </c>
+      <c r="G2">
+        <v>5.6466986683400481e-14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3">
+        <v>0.4684558850673296</v>
+      </c>
+      <c r="C3">
+        <v>0.23720847461079142</v>
+      </c>
+      <c r="D3">
+        <v>0.19488201991427712</v>
+      </c>
+      <c r="E3">
+        <v>0.094818602391121221</v>
+      </c>
+      <c r="F3">
+        <v>0.0046350180164253718</v>
+      </c>
+      <c r="G3">
+        <v>5.5072536987651559e-14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4">
+        <v>0.46865436907399816</v>
+      </c>
+      <c r="C4">
+        <v>0.27610255618583651</v>
+      </c>
+      <c r="D4">
+        <v>0.21642764626778743</v>
+      </c>
+      <c r="E4">
+        <v>0.016902730140696237</v>
+      </c>
+      <c r="F4">
+        <v>0.021912698331627383</v>
+      </c>
+      <c r="G4">
+        <v>5.4134378344104364e-14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5">
+        <v>0.51587154719988726</v>
+      </c>
+      <c r="C5">
+        <v>0.23675105656363662</v>
+      </c>
+      <c r="D5">
+        <v>0.1456459067546407</v>
+      </c>
+      <c r="E5">
+        <v>0.011201630733884749</v>
+      </c>
+      <c r="F5">
+        <v>0.09052985874788852</v>
+      </c>
+      <c r="G5">
+        <v>6.1991994947242658e-14</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6">
+        <v>0.5420144292160658</v>
+      </c>
+      <c r="C6">
+        <v>0.235586028431124</v>
+      </c>
+      <c r="D6">
+        <v>0.17720441745027554</v>
+      </c>
+      <c r="E6">
+        <v>0.022393456363888255</v>
+      </c>
+      <c r="F6">
+        <v>0.022801668538583821</v>
+      </c>
+      <c r="G6">
+        <v>6.2501052149125343e-14</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7">
+        <v>0.48621081331896499</v>
+      </c>
+      <c r="C7">
+        <v>0.088133205859738051</v>
+      </c>
+      <c r="D7">
+        <v>0.3991877552999159</v>
+      </c>
+      <c r="E7">
+        <v>0.014833392758664783</v>
+      </c>
+      <c r="F7">
+        <v>0.011634832762684082</v>
+      </c>
+      <c r="G7">
+        <v>3.2192924936528532e-14</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8">
+        <v>0.30532758347305511</v>
+      </c>
+      <c r="C8">
+        <v>0.33928762415841929</v>
+      </c>
+      <c r="D8">
+        <v>0.25886006308796045</v>
+      </c>
+      <c r="E8">
+        <v>0.053142439780690671</v>
+      </c>
+      <c r="F8">
+        <v>0.043382289499822854</v>
+      </c>
+      <c r="G8">
+        <v>5.1745340395910633e-14</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9">
+        <v>0.55116597538322409</v>
+      </c>
+      <c r="C9">
+        <v>0.29131981978195992</v>
+      </c>
+      <c r="D9">
+        <v>0.080776029012807671</v>
+      </c>
+      <c r="E9">
+        <v>0.055284038603813451</v>
+      </c>
+      <c r="F9">
+        <v>0.021454137218137326</v>
+      </c>
+      <c r="G9">
+        <v>5.7259266471454939e-14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10">
+        <v>0.27537613980366554</v>
+      </c>
+      <c r="C10">
+        <v>0.078360533653579159</v>
+      </c>
+      <c r="D10">
+        <v>0.061289830877944138</v>
+      </c>
+      <c r="E10">
+        <v>0.091472936343526989</v>
+      </c>
+      <c r="F10">
+        <v>0.49350055932125697</v>
+      </c>
+      <c r="G10">
+        <v>2.7224548320224726e-14</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11">
+        <v>0.25050780348803653</v>
+      </c>
+      <c r="C11">
+        <v>0.15385388862504004</v>
+      </c>
+      <c r="D11">
+        <v>0.2597013316168077</v>
+      </c>
+      <c r="E11">
+        <v>0.012200365925569268</v>
+      </c>
+      <c r="F11">
+        <v>0.32373661034452089</v>
+      </c>
+      <c r="G11">
+        <v>2.5813990929780648e-14</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12">
+        <v>0.42678122889197884</v>
+      </c>
+      <c r="C12">
+        <v>0.24970455458161295</v>
+      </c>
+      <c r="D12">
+        <v>0.25031706874839177</v>
+      </c>
+      <c r="E12">
+        <v>0.028560895142778923</v>
+      </c>
+      <c r="F12">
+        <v>0.044636252635189409</v>
+      </c>
+      <c r="G12">
+        <v>4.8190206020535622e-14</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13">
+        <v>0.48290554730911373</v>
+      </c>
+      <c r="C13">
+        <v>0.14872037788357143</v>
+      </c>
+      <c r="D13">
+        <v>0.30158657538217365</v>
+      </c>
+      <c r="E13">
+        <v>0.0326074442092011</v>
+      </c>
+      <c r="F13">
+        <v>0.03418005521590272</v>
+      </c>
+      <c r="G13">
+        <v>3.7206596457240108e-14</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14">
+        <v>0.37678091161295479</v>
+      </c>
+      <c r="C14">
+        <v>0.1300629389772528</v>
+      </c>
+      <c r="D14">
+        <v>0.44346590450934681</v>
+      </c>
+      <c r="E14">
+        <v>0.027833021638017697</v>
+      </c>
+      <c r="F14">
+        <v>0.02185722326239517</v>
+      </c>
+      <c r="G14">
+        <v>3.2547483851880241e-14</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15">
+        <v>0.3908645468145549</v>
+      </c>
+      <c r="C15">
+        <v>0.1809022870009433</v>
+      </c>
+      <c r="D15">
+        <v>0.37425250950584621</v>
+      </c>
+      <c r="E15">
+        <v>0.013532269816608225</v>
+      </c>
+      <c r="F15">
+        <v>0.040448386862008051</v>
+      </c>
+      <c r="G15">
+        <v>3.9338442530014604e-14</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16">
+        <v>0.39505848640251939</v>
+      </c>
+      <c r="C16">
+        <v>0.22295449840302728</v>
+      </c>
+      <c r="D16">
+        <v>0.28095454384408375</v>
+      </c>
+      <c r="E16">
+        <v>0.015425358267871014</v>
+      </c>
+      <c r="F16">
+        <v>0.085607113082455361</v>
+      </c>
+      <c r="G16">
+        <v>4.3348268236381535e-14</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17">
+        <v>0.33755101131621462</v>
+      </c>
+      <c r="C17">
+        <v>0.1372741479606564</v>
+      </c>
+      <c r="D17">
+        <v>0.45482667623105189</v>
+      </c>
+      <c r="E17">
+        <v>0.032669095812475207</v>
+      </c>
+      <c r="F17">
+        <v>0.037679068679573047</v>
+      </c>
+      <c r="G17">
+        <v>2.872079234352621e-14</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18">
+        <v>0.41035863757134017</v>
+      </c>
+      <c r="C18">
+        <v>0.30642394995105959</v>
+      </c>
+      <c r="D18">
+        <v>0.19387367499024516</v>
+      </c>
+      <c r="E18">
+        <v>0.030462363638099479</v>
+      </c>
+      <c r="F18">
+        <v>0.058881373849203306</v>
+      </c>
+      <c r="G18">
+        <v>5.2118938134992786e-14</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19">
+        <v>0.21090023264644919</v>
+      </c>
+      <c r="C19">
+        <v>0.18942220886461295</v>
+      </c>
+      <c r="D19">
+        <v>0.27127914889779331</v>
+      </c>
+      <c r="E19">
+        <v>0.028559177399572633</v>
+      </c>
+      <c r="F19">
+        <v>0.29983923219154424</v>
+      </c>
+      <c r="G19">
+        <v>2.7659821938926928e-14</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20">
+        <v>0.27506967373706076</v>
+      </c>
+      <c r="C20">
+        <v>0.096919727071153275</v>
+      </c>
+      <c r="D20">
+        <v>0.11515731529250609</v>
+      </c>
+      <c r="E20">
+        <v>0.14237463756917135</v>
+      </c>
+      <c r="F20">
+        <v>0.37047864633007316</v>
+      </c>
+      <c r="G20">
+        <v>3.5295852705334792e-14</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21">
+        <v>0.29474780399090905</v>
+      </c>
+      <c r="C21">
+        <v>0.26156296649690108</v>
+      </c>
+      <c r="D21">
+        <v>0.39171886231845487</v>
+      </c>
+      <c r="E21">
+        <v>0.016436934561631554</v>
+      </c>
+      <c r="F21">
+        <v>0.035533432632055398</v>
+      </c>
+      <c r="G21">
+        <v>4.7987934570636166e-14</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22">
+        <v>0.31197753303214804</v>
+      </c>
+      <c r="C22">
+        <v>0.16786102489508656</v>
+      </c>
+      <c r="D22">
+        <v>0.3280114479067644</v>
+      </c>
+      <c r="E22">
+        <v>0.10876344934479722</v>
+      </c>
+      <c r="F22">
+        <v>0.083386544821135361</v>
+      </c>
+      <c r="G22">
+        <v>6.8553915429060794e-14</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23">
+        <v>0.35342598945298026</v>
+      </c>
+      <c r="C23">
+        <v>0.23310309202978488</v>
+      </c>
+      <c r="D23">
+        <v>0.24900671419294385</v>
+      </c>
+      <c r="E23">
+        <v>0.027170841665994341</v>
+      </c>
+      <c r="F23">
+        <v>0.13729336265824635</v>
+      </c>
+      <c r="G23">
+        <v>5.0201253900171689e-14</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24">
+        <v>0.18413270313469829</v>
+      </c>
+      <c r="C24">
+        <v>0.17206049001831075</v>
+      </c>
+      <c r="D24">
+        <v>0.27755565148800015</v>
+      </c>
+      <c r="E24">
+        <v>0.022367959360870146</v>
+      </c>
+      <c r="F24">
+        <v>0.34388319599808931</v>
+      </c>
+      <c r="G24">
+        <v>3.1491631638628193e-14</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25">
+        <v>0.11906792185549475</v>
+      </c>
+      <c r="C25">
+        <v>0.15185837083807072</v>
+      </c>
+      <c r="D25">
+        <v>0.066974919409874267</v>
+      </c>
+      <c r="E25">
+        <v>0.10251874436434855</v>
+      </c>
+      <c r="F25">
+        <v>0.55958004353217849</v>
+      </c>
+      <c r="G25">
+        <v>3.3167887316067782e-14</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B26">
+        <v>0.093996766288085967</v>
+      </c>
+      <c r="C26">
+        <v>0.27460650296706468</v>
+      </c>
+      <c r="D26">
+        <v>0.15037865380412535</v>
+      </c>
+      <c r="E26">
+        <v>0.0082131981365154774</v>
+      </c>
+      <c r="F26">
+        <v>0.47280487880417915</v>
+      </c>
+      <c r="G26">
+        <v>2.9415460014203932e-14</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27">
+        <v>0.037898632277999826</v>
+      </c>
+      <c r="C27">
+        <v>0.63820054756117739</v>
+      </c>
+      <c r="D27">
+        <v>0.027027109472613883</v>
+      </c>
+      <c r="E27">
+        <v>0.29121633206474373</v>
+      </c>
+      <c r="F27">
+        <v>0.0056573786234083365</v>
+      </c>
+      <c r="G27">
+        <v>5.6916287470590989e-14</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28">
+        <v>0.26968703075348865</v>
+      </c>
+      <c r="C28">
+        <v>0.22551639773746557</v>
+      </c>
+      <c r="D28">
+        <v>0.24665828262731412</v>
+      </c>
+      <c r="E28">
+        <v>0.1815253684814023</v>
+      </c>
+      <c r="F28">
+        <v>0.076612920400123602</v>
+      </c>
+      <c r="G28">
+        <v>2.0576459387913317e-13</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B29">
+        <v>0.25576939081920314</v>
+      </c>
+      <c r="C29">
+        <v>0.26451368103261025</v>
+      </c>
+      <c r="D29">
+        <v>0.46502485626126111</v>
+      </c>
+      <c r="E29">
+        <v>0.011097602606097063</v>
+      </c>
+      <c r="F29">
+        <v>0.0035944692807794543</v>
+      </c>
+      <c r="G29">
+        <v>4.8856248115406854e-14</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B30">
+        <v>0.28991200207731871</v>
+      </c>
+      <c r="C30">
+        <v>0.39047014520757345</v>
+      </c>
+      <c r="D30">
+        <v>0.2537009156144342</v>
+      </c>
+      <c r="E30">
+        <v>0.012720790723112704</v>
+      </c>
+      <c r="F30">
+        <v>0.053196146377472914</v>
+      </c>
+      <c r="G30">
+        <v>8.7960751088209728e-14</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B31">
+        <v>0.3511955298567</v>
+      </c>
+      <c r="C31">
+        <v>0.48912876884256756</v>
+      </c>
+      <c r="D31">
+        <v>0.11174495862195659</v>
+      </c>
+      <c r="E31">
+        <v>0.032939178788249091</v>
+      </c>
+      <c r="F31">
+        <v>0.01499156389044924</v>
+      </c>
+      <c r="G31">
+        <v>7.7540942193972425e-14</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32">
+        <v>0.32792995968914157</v>
+      </c>
+      <c r="C32">
+        <v>0.43361174964182281</v>
+      </c>
+      <c r="D32">
+        <v>0.18854109418551493</v>
+      </c>
+      <c r="E32">
+        <v>0.01168198702249337</v>
+      </c>
+      <c r="F32">
+        <v>0.038235209460969075</v>
+      </c>
+      <c r="G32">
+        <v>5.8068323827913159e-14</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B33">
+        <v>0.38763179062819469</v>
+      </c>
+      <c r="C33">
+        <v>0.43074865847298915</v>
+      </c>
+      <c r="D33">
+        <v>0.13638775375706161</v>
+      </c>
+      <c r="E33">
+        <v>0.033345965870615085</v>
+      </c>
+      <c r="F33">
+        <v>0.011885831271067324</v>
+      </c>
+      <c r="G33">
+        <v>7.244714024405455e-14</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B34">
+        <v>0.32671719582329578</v>
+      </c>
+      <c r="C34">
+        <v>0.31023289266642506</v>
+      </c>
+      <c r="D34">
+        <v>0.30873320734269993</v>
+      </c>
+      <c r="E34">
+        <v>0.049883580727656328</v>
+      </c>
+      <c r="F34">
+        <v>0.0044331234398757562</v>
+      </c>
+      <c r="G34">
+        <v>4.7185707701010264e-14</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35">
+        <v>0.35131084043198701</v>
+      </c>
+      <c r="C35">
+        <v>0.39061474237608851</v>
+      </c>
+      <c r="D35">
+        <v>0.22190763380838258</v>
+      </c>
+      <c r="E35">
+        <v>0.01730096906465468</v>
+      </c>
+      <c r="F35">
+        <v>0.018865814318822879</v>
+      </c>
+      <c r="G35">
+        <v>6.4237275179384626e-14</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B36">
+        <v>0.39353946888220576</v>
+      </c>
+      <c r="C36">
+        <v>0.33559501194567598</v>
+      </c>
+      <c r="D36">
+        <v>0.23460781900335118</v>
+      </c>
+      <c r="E36">
+        <v>0.023454346921451815</v>
+      </c>
+      <c r="F36">
+        <v>0.012803353247254814</v>
+      </c>
+      <c r="G36">
+        <v>6.0418037654535276e-14</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37">
+        <v>0.41975810726808949</v>
+      </c>
+      <c r="C37">
+        <v>0.27726431815022506</v>
+      </c>
+      <c r="D37">
+        <v>0.20416695186710768</v>
+      </c>
+      <c r="E37">
+        <v>0.017093220047402775</v>
+      </c>
+      <c r="F37">
+        <v>0.081717402667128014</v>
+      </c>
+      <c r="G37">
+        <v>4.6866020235495248e-14</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B38">
+        <v>0.38705944314122293</v>
+      </c>
+      <c r="C38">
+        <v>0.21678312458603308</v>
+      </c>
+      <c r="D38">
+        <v>0.30200717639104668</v>
+      </c>
+      <c r="E38">
+        <v>0.034384553011148497</v>
+      </c>
+      <c r="F38">
+        <v>0.059765702870511167</v>
+      </c>
+      <c r="G38">
+        <v>3.7707271149806797e-14</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39">
+        <v>0.43412334757520465</v>
+      </c>
+      <c r="C39">
+        <v>0.24563247175805455</v>
+      </c>
+      <c r="D39">
+        <v>0.25964950366210265</v>
+      </c>
+      <c r="E39">
+        <v>0.031808535561484066</v>
+      </c>
+      <c r="F39">
+        <v>0.028786141443100596</v>
+      </c>
+      <c r="G39">
+        <v>5.3032416994423816e-14</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B40">
+        <v>0.23967756057958636</v>
+      </c>
+      <c r="C40">
+        <v>0.29749828636666142</v>
+      </c>
+      <c r="D40">
+        <v>0.42435712298463513</v>
+      </c>
+      <c r="E40">
+        <v>0.034795557326758118</v>
+      </c>
+      <c r="F40">
+        <v>0.0036714727422967833</v>
+      </c>
+      <c r="G40">
+        <v>6.2284538108075324e-14</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B41">
+        <v>0.19975049491751448</v>
+      </c>
+      <c r="C41">
+        <v>0.16641422390773289</v>
+      </c>
+      <c r="D41">
+        <v>0.58230969141655675</v>
+      </c>
+      <c r="E41">
+        <v>0.051161581456323928</v>
+      </c>
+      <c r="F41">
+        <v>0.00036400830183212958</v>
+      </c>
+      <c r="G41">
+        <v>3.9909766925707997e-14</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B42">
+        <v>0.230271541190079</v>
+      </c>
+      <c r="C42">
+        <v>0.083080886143483024</v>
+      </c>
+      <c r="D42">
+        <v>0.66853201544336716</v>
+      </c>
+      <c r="E42">
+        <v>0.015136923153030411</v>
+      </c>
+      <c r="F42">
+        <v>0.0029786340700118583</v>
+      </c>
+      <c r="G42">
+        <v>2.8600499394790505e-14</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43">
+        <v>0.23406287903302297</v>
+      </c>
+      <c r="C43">
+        <v>0.23220783417889831</v>
+      </c>
+      <c r="D43">
+        <v>0.49305963597635311</v>
+      </c>
+      <c r="E43">
+        <v>0.036434157408488238</v>
+      </c>
+      <c r="F43">
+        <v>0.0042354934031967849</v>
+      </c>
+      <c r="G43">
+        <v>4.0690805902303712e-14</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44">
+        <v>0.20853841955208591</v>
+      </c>
+      <c r="C44">
+        <v>0.17685389281608732</v>
+      </c>
+      <c r="D44">
+        <v>0.57687244973637619</v>
+      </c>
+      <c r="E44">
+        <v>0.036776392591076471</v>
+      </c>
+      <c r="F44">
+        <v>0.00095884530433423083</v>
+      </c>
+      <c r="G44">
+        <v>3.978259479873405e-14</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45">
+        <v>0.16507560611988933</v>
+      </c>
+      <c r="C45">
+        <v>0.16910434490714488</v>
+      </c>
+      <c r="D45">
+        <v>0.644896001076535</v>
+      </c>
+      <c r="E45">
+        <v>0.011706078513843159</v>
+      </c>
+      <c r="F45">
+        <v>0.0092179693825546298</v>
+      </c>
+      <c r="G45">
+        <v>3.2708608477801159e-14</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B46">
+        <v>0.14541988842217299</v>
+      </c>
+      <c r="C46">
+        <v>0.12673577228530339</v>
+      </c>
+      <c r="D46">
+        <v>0.70267346998057678</v>
+      </c>
+      <c r="E46">
+        <v>0.0093456205881449136</v>
+      </c>
+      <c r="F46">
+        <v>0.015825248723779703</v>
+      </c>
+      <c r="G46">
+        <v>2.2287682623373188e-14</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B47">
+        <v>0.17302869439409654</v>
+      </c>
+      <c r="C47">
+        <v>0.10431368440366594</v>
+      </c>
+      <c r="D47">
+        <v>0.70346184131340872</v>
+      </c>
+      <c r="E47">
+        <v>0.0066147629595626131</v>
+      </c>
+      <c r="F47">
+        <v>0.012581016929243988</v>
+      </c>
+      <c r="G47">
+        <v>2.2209357013046847e-14</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48">
+        <v>0.15138744225384471</v>
+      </c>
+      <c r="C48">
+        <v>0.062391255620694856</v>
+      </c>
+      <c r="D48">
+        <v>0.77133700095363988</v>
+      </c>
+      <c r="E48">
+        <v>0.011079168931907048</v>
+      </c>
+      <c r="F48">
+        <v>0.0038051322398911119</v>
+      </c>
+      <c r="G48">
+        <v>2.2300356508508725e-14</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B49">
+        <v>0.14002480979222454</v>
+      </c>
+      <c r="C49">
+        <v>0.032723956560324251</v>
+      </c>
+      <c r="D49">
+        <v>0.81626559183830671</v>
+      </c>
+      <c r="E49">
+        <v>0.010235653003545011</v>
+      </c>
+      <c r="F49">
+        <v>0.00074998880557716307</v>
+      </c>
+      <c r="G49">
+        <v>2.2256369904317305e-14</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B50">
+        <v>0.18266263101054495</v>
+      </c>
+      <c r="C50">
+        <v>0.23782982522326057</v>
+      </c>
+      <c r="D50">
+        <v>0.54969638856761704</v>
+      </c>
+      <c r="E50">
+        <v>0.022964152931519963</v>
+      </c>
+      <c r="F50">
+        <v>0.0068470022670226874</v>
+      </c>
+      <c r="G50">
+        <v>3.4700903496451683e-14</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51">
+        <v>0.18574860517165359</v>
+      </c>
+      <c r="C51">
+        <v>0.14553383943229983</v>
+      </c>
+      <c r="D51">
+        <v>0.63278639560503003</v>
+      </c>
+      <c r="E51">
+        <v>0.015600548430584617</v>
+      </c>
+      <c r="F51">
+        <v>0.020330611360409551</v>
+      </c>
+      <c r="G51">
+        <v>2.2262196757871925e-14</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52">
+        <v>0.34788942275888385</v>
+      </c>
+      <c r="C52">
+        <v>0.20547234933246206</v>
+      </c>
+      <c r="D52">
+        <v>0.34306573039693072</v>
+      </c>
+      <c r="E52">
+        <v>0.025519787107543195</v>
+      </c>
+      <c r="F52">
+        <v>0.078052710404136832</v>
+      </c>
+      <c r="G52">
+        <v>4.3190875574152528e-14</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53">
+        <v>0.20138079957858829</v>
+      </c>
+      <c r="C53">
+        <v>0.11405914143054809</v>
+      </c>
+      <c r="D53">
+        <v>0.091169471894496534</v>
+      </c>
+      <c r="E53">
+        <v>0.096200939484185635</v>
+      </c>
+      <c r="F53">
+        <v>0.49718964761214735</v>
+      </c>
+      <c r="G53">
+        <v>3.4151912904101526e-14</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54">
+        <v>0.23073117653196251</v>
+      </c>
+      <c r="C54">
+        <v>0.25435721337718609</v>
+      </c>
+      <c r="D54">
+        <v>0.25247990283444049</v>
+      </c>
+      <c r="E54">
+        <v>0.063868444296320701</v>
+      </c>
+      <c r="F54">
+        <v>0.19856326296003915</v>
+      </c>
+      <c r="G54">
+        <v>5.1358103483781505e-14</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55">
+        <v>0.36530771622168445</v>
+      </c>
+      <c r="C55">
+        <v>0.26929665049073598</v>
+      </c>
+      <c r="D55">
+        <v>0.27832110004010502</v>
+      </c>
+      <c r="E55">
+        <v>0.065182556048574661</v>
+      </c>
+      <c r="F55">
+        <v>0.021891977198819291</v>
+      </c>
+      <c r="G55">
+        <v>8.0635096908946219e-14</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B56">
+        <v>0.33328951170859122</v>
+      </c>
+      <c r="C56">
+        <v>0.23749165584788179</v>
+      </c>
+      <c r="D56">
+        <v>0.32222634492479851</v>
+      </c>
+      <c r="E56">
+        <v>0.091468372363404341</v>
+      </c>
+      <c r="F56">
+        <v>0.015524115155204837</v>
+      </c>
+      <c r="G56">
+        <v>1.1945896557787046e-13</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57">
+        <v>0.33569948892821633</v>
+      </c>
+      <c r="C57">
+        <v>0.13663570425141955</v>
+      </c>
+      <c r="D57">
+        <v>0.36731196952359807</v>
+      </c>
+      <c r="E57">
+        <v>0.032406880687523509</v>
+      </c>
+      <c r="F57">
+        <v>0.12794595660916497</v>
+      </c>
+      <c r="G57">
+        <v>7.7621634167113844e-14</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B58">
+        <v>0.3242379328943234</v>
+      </c>
+      <c r="C58">
+        <v>0.023551820369345378</v>
+      </c>
+      <c r="D58">
+        <v>0.64008119345865266</v>
+      </c>
+      <c r="E58">
+        <v>0.01016780536196135</v>
+      </c>
+      <c r="F58">
+        <v>0.0019612479156948235</v>
+      </c>
+      <c r="G58">
+        <v>2.2466290927804289e-14</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B59">
+        <v>0.19716708038205871</v>
+      </c>
+      <c r="C59">
+        <v>0.41665261620121263</v>
+      </c>
+      <c r="D59">
+        <v>0.27297740298663065</v>
+      </c>
+      <c r="E59">
+        <v>0.085014539199854938</v>
+      </c>
+      <c r="F59">
+        <v>0.028188361230118749</v>
+      </c>
+      <c r="G59">
+        <v>1.244697531581434e-13</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B60">
+        <v>0.15927760317782944</v>
+      </c>
+      <c r="C60">
+        <v>0.17266242446511731</v>
+      </c>
+      <c r="D60">
+        <v>0.010938941343294257</v>
+      </c>
+      <c r="E60">
+        <v>0.51760014412882849</v>
+      </c>
+      <c r="F60">
+        <v>0.13952088688488523</v>
+      </c>
+      <c r="G60">
+        <v>4.5350827908245638e-14</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B61">
+        <v>0.16960991961368202</v>
+      </c>
+      <c r="C61">
+        <v>0.09639445537612297</v>
+      </c>
+      <c r="D61">
+        <v>0.0057455057645445524</v>
+      </c>
+      <c r="E61">
+        <v>0.66845900761745836</v>
+      </c>
+      <c r="F61">
+        <v>0.05979111162814478</v>
+      </c>
+      <c r="G61">
+        <v>4.7253001361235826e-14</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B62">
+        <v>0.07066108890201335</v>
+      </c>
+      <c r="C62">
+        <v>0.11832956349430726</v>
+      </c>
+      <c r="D62">
+        <v>0.00059466816239650327</v>
+      </c>
+      <c r="E62">
+        <v>0.56046908965003006</v>
+      </c>
+      <c r="F62">
+        <v>0.24994558979122219</v>
+      </c>
+      <c r="G62">
+        <v>3.0840236984620916e-14</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B63">
+        <v>0.038435707677025685</v>
+      </c>
+      <c r="C63">
+        <v>0.082848291443770983</v>
+      </c>
+      <c r="D63">
+        <v>0.0002850647285836773</v>
+      </c>
+      <c r="E63">
+        <v>0.81642662029372326</v>
+      </c>
+      <c r="F63">
+        <v>0.062004315856874111</v>
+      </c>
+      <c r="G63">
+        <v>2.2202405758751592e-14</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64">
+        <v>0.033212777069598166</v>
+      </c>
+      <c r="C64">
+        <v>0.052336964103662717</v>
+      </c>
+      <c r="D64">
+        <v>0.0014266043932194767</v>
+      </c>
+      <c r="E64">
+        <v>0.53442056454533093</v>
+      </c>
+      <c r="F64">
+        <v>0.37860308988816638</v>
+      </c>
+      <c r="G64">
+        <v>2.2343702197710488e-14</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B65">
+        <v>0.34469743655531948</v>
+      </c>
+      <c r="C65">
+        <v>0.1562282093861741</v>
+      </c>
+      <c r="D65">
+        <v>0.13494368577133642</v>
+      </c>
+      <c r="E65">
+        <v>0.2872364783389762</v>
+      </c>
+      <c r="F65">
+        <v>0.076894189948153113</v>
+      </c>
+      <c r="G65">
+        <v>4.0902538894283531e-14</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B66">
+        <v>0.13147145683903899</v>
+      </c>
+      <c r="C66">
+        <v>0.060251266815838242</v>
+      </c>
+      <c r="D66">
+        <v>0.048070642409538088</v>
+      </c>
+      <c r="E66">
+        <v>0.16657857031927417</v>
+      </c>
+      <c r="F66">
+        <v>0.59362806361628662</v>
+      </c>
+      <c r="G66">
+        <v>2.3937253270410313e-14</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B67">
+        <v>0.35123110101071114</v>
+      </c>
+      <c r="C67">
+        <v>0.14278836679566659</v>
+      </c>
+      <c r="D67">
+        <v>0.35331537044671885</v>
+      </c>
+      <c r="E67">
+        <v>0.075064953213619751</v>
+      </c>
+      <c r="F67">
+        <v>0.077600208533249615</v>
+      </c>
+      <c r="G67">
+        <v>3.4015421359133491e-14</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B68">
+        <v>0.043488983314068176</v>
+      </c>
+      <c r="C68">
+        <v>0.016391195812428917</v>
+      </c>
+      <c r="D68">
+        <v>0.03173327459450842</v>
+      </c>
+      <c r="E68">
+        <v>0.023793166648801833</v>
+      </c>
+      <c r="F68">
+        <v>0.88459337963017037</v>
+      </c>
+      <c r="G68">
+        <v>2.2314475153619498e-14</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B69">
+        <v>0.17655970639539781</v>
+      </c>
+      <c r="C69">
+        <v>0.22840401565927254</v>
+      </c>
+      <c r="D69">
+        <v>0.01741738863216483</v>
+      </c>
+      <c r="E69">
+        <v>0.50013531702992975</v>
+      </c>
+      <c r="F69">
+        <v>0.077483572283175164</v>
+      </c>
+      <c r="G69">
+        <v>5.9835910080339631e-14</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B70">
+        <v>0.019538094914406879</v>
+      </c>
+      <c r="C70">
+        <v>0.050588951035751138</v>
+      </c>
+      <c r="D70">
+        <v>0.00034317211141761937</v>
+      </c>
+      <c r="E70">
+        <v>0.087106039361548496</v>
+      </c>
+      <c r="F70">
+        <v>0.8424237425768536</v>
+      </c>
+      <c r="G70">
+        <v>2.2265904930500485e-14</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B71">
+        <v>0.062537888965187943</v>
+      </c>
+      <c r="C71">
+        <v>0.081143703257018612</v>
+      </c>
+      <c r="D71">
+        <v>0.00066693185357679448</v>
+      </c>
+      <c r="E71">
+        <v>0.091781270341407567</v>
+      </c>
+      <c r="F71">
+        <v>0.76387020558278684</v>
+      </c>
+      <c r="G71">
+        <v>2.2259231582091782e-14</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B72">
+        <v>0.15120788108855854</v>
+      </c>
+      <c r="C72">
+        <v>0.0040468049708023302</v>
+      </c>
+      <c r="D72">
+        <v>0.050707130836439823</v>
+      </c>
+      <c r="E72">
+        <v>0.0111547474147732</v>
+      </c>
+      <c r="F72">
+        <v>0.78288343568940366</v>
+      </c>
+      <c r="G72">
+        <v>2.2405889658613979e-14</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B73">
+        <v>0.17728126337970054</v>
+      </c>
+      <c r="C73">
+        <v>0.0012057677612559805</v>
+      </c>
+      <c r="D73">
+        <v>0.056127656928761163</v>
+      </c>
+      <c r="E73">
+        <v>0.00038539731395782935</v>
+      </c>
+      <c r="F73">
+        <v>0.76499991461630212</v>
+      </c>
+      <c r="G73">
+        <v>2.2411361510016126e-14</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B74">
+        <v>0.1711635434781946</v>
+      </c>
+      <c r="C74">
+        <v>0.044778835746214669</v>
+      </c>
+      <c r="D74">
+        <v>0.31611714368834104</v>
+      </c>
+      <c r="E74">
+        <v>0.081748402079877241</v>
+      </c>
+      <c r="F74">
+        <v>0.38619207500731823</v>
+      </c>
+      <c r="G74">
+        <v>5.4227784516565036e-14</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B75">
+        <v>0.064519557346884762</v>
+      </c>
+      <c r="C75">
+        <v>0.00046586782801254407</v>
+      </c>
+      <c r="D75">
+        <v>0.088071428668679244</v>
+      </c>
+      <c r="E75">
+        <v>0.013969409983052666</v>
+      </c>
+      <c r="F75">
+        <v>0.83297373617334847</v>
+      </c>
+      <c r="G75">
+        <v>2.2290912283688823e-14</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B76">
+        <v>0.1553083080476429</v>
+      </c>
+      <c r="C76">
+        <v>0.008532510055037348</v>
+      </c>
+      <c r="D76">
+        <v>0.11549091436069112</v>
+      </c>
+      <c r="E76">
+        <v>0.10006323264402614</v>
+      </c>
+      <c r="F76">
+        <v>0.62060503489256924</v>
+      </c>
+      <c r="G76">
+        <v>3.3373924552999611e-14</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B77">
+        <v>0.067233092258019628</v>
+      </c>
+      <c r="C77">
+        <v>0.03931101769618002</v>
+      </c>
+      <c r="D77">
+        <v>0.0042120300385071517</v>
+      </c>
+      <c r="E77">
+        <v>0.047870197326642681</v>
+      </c>
+      <c r="F77">
+        <v>0.84137366268062819</v>
+      </c>
+      <c r="G77">
+        <v>2.2314009633921693e-14</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B78">
+        <v>0.067711730587102087</v>
+      </c>
+      <c r="C78">
+        <v>0.029856027275634713</v>
+      </c>
+      <c r="D78">
+        <v>0.0023912107702775409</v>
+      </c>
+      <c r="E78">
+        <v>0.080726308408389638</v>
+      </c>
+      <c r="F78">
+        <v>0.81931472295857377</v>
+      </c>
+      <c r="G78">
+        <v>2.2321798620823307e-14</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B79">
+        <v>0.19667011061547884</v>
+      </c>
+      <c r="C79">
+        <v>0.035245197242183182</v>
+      </c>
+      <c r="D79">
+        <v>0.02390980893541075</v>
+      </c>
+      <c r="E79">
+        <v>0.1162634266998489</v>
+      </c>
+      <c r="F79">
+        <v>0.62791145650705604</v>
+      </c>
+      <c r="G79">
+        <v>2.2267253607472818e-14</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80">
+        <v>0.029057132731021073</v>
+      </c>
+      <c r="C80">
+        <v>0.018920264760460329</v>
+      </c>
+      <c r="D80">
+        <v>0.00089756273158318853</v>
+      </c>
+      <c r="E80">
+        <v>0.012153671215220627</v>
+      </c>
+      <c r="F80">
+        <v>0.93897136856169261</v>
+      </c>
+      <c r="G80">
+        <v>2.2235876274890588e-14</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B81">
+        <v>0.030606978993380374</v>
+      </c>
+      <c r="C81">
+        <v>0.030385726014765451</v>
+      </c>
+      <c r="D81">
+        <v>0.00072008125365478144</v>
+      </c>
+      <c r="E81">
+        <v>0.015507691663858557</v>
+      </c>
+      <c r="F81">
+        <v>0.92277952207431857</v>
+      </c>
+      <c r="G81">
+        <v>2.2257317051884024e-14</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B82">
+        <v>0.10798263119387452</v>
+      </c>
+      <c r="C82">
+        <v>0.032831521055311716</v>
+      </c>
+      <c r="D82">
+        <v>0.0084718147874493759</v>
+      </c>
+      <c r="E82">
+        <v>0.0095110718226668594</v>
+      </c>
+      <c r="F82">
+        <v>0.84120296114067517</v>
+      </c>
+      <c r="G82">
+        <v>2.2329378051128397e-14</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B83">
+        <v>0.076600954200389634</v>
+      </c>
+      <c r="C83">
+        <v>0.078228108072160296</v>
+      </c>
+      <c r="D83">
+        <v>0.014391830813152425</v>
+      </c>
+      <c r="E83">
+        <v>0.04189371851498043</v>
+      </c>
+      <c r="F83">
+        <v>0.7888853883992949</v>
+      </c>
+      <c r="G83">
+        <v>2.2295797867699853e-14</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B84">
+        <v>0.026978922342045974</v>
+      </c>
+      <c r="C84">
+        <v>0.074231704972615858</v>
+      </c>
+      <c r="D84">
+        <v>0.0002336774508463796</v>
+      </c>
+      <c r="E84">
+        <v>0.011390135953719977</v>
+      </c>
+      <c r="F84">
+        <v>0.88716555928074947</v>
+      </c>
+      <c r="G84">
+        <v>2.228414205683905e-14</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B85">
+        <v>0.042969169463581376</v>
+      </c>
+      <c r="C85">
+        <v>0.017828189678305868</v>
+      </c>
+      <c r="D85">
+        <v>0.0030965478473304253</v>
+      </c>
+      <c r="E85">
+        <v>0.0067256642274982608</v>
+      </c>
+      <c r="F85">
+        <v>0.92938042878326188</v>
+      </c>
+      <c r="G85">
+        <v>2.2234509540885433e-14</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B86">
+        <v>0.060299899955634846</v>
+      </c>
+      <c r="C86">
+        <v>0.019277989369209336</v>
+      </c>
+      <c r="D86">
+        <v>0.0066993926895225651</v>
+      </c>
+      <c r="E86">
+        <v>0.011787360935516102</v>
+      </c>
+      <c r="F86">
+        <v>0.90193535705009487</v>
+      </c>
+      <c r="G86">
+        <v>2.2262016898354216e-14</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B87">
+        <v>0.049322769022134012</v>
+      </c>
+      <c r="C87">
+        <v>0.012057912311487675</v>
+      </c>
+      <c r="D87">
+        <v>0.0078832842478053101</v>
+      </c>
+      <c r="E87">
+        <v>0.0071579978079838718</v>
+      </c>
+      <c r="F87">
+        <v>0.92357803661056692</v>
+      </c>
+      <c r="G87">
+        <v>2.2232442518763513e-14</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B88">
+        <v>0.079010180439188879</v>
+      </c>
+      <c r="C88">
+        <v>0.019110709550542095</v>
+      </c>
+      <c r="D88">
+        <v>0.024921062643860258</v>
+      </c>
+      <c r="E88">
+        <v>0.04192126283083409</v>
+      </c>
+      <c r="F88">
+        <v>0.8350367845355523</v>
+      </c>
+      <c r="G88">
+        <v>2.2389081399560006e-14</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B89">
+        <v>0.057437228529198615</v>
+      </c>
+      <c r="C89">
+        <v>0.01294346413221409</v>
+      </c>
+      <c r="D89">
+        <v>0.0069191577064384004</v>
+      </c>
+      <c r="E89">
+        <v>0.0065900054599558775</v>
+      </c>
+      <c r="F89">
+        <v>0.91611014417217074</v>
+      </c>
+      <c r="G89">
+        <v>2.2242763161610305e-14</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B90">
+        <v>0.13160347772616091</v>
+      </c>
+      <c r="C90">
+        <v>0.031617554242568492</v>
+      </c>
+      <c r="D90">
+        <v>0.057561225955300388</v>
+      </c>
+      <c r="E90">
+        <v>0.055440057873763521</v>
+      </c>
+      <c r="F90">
+        <v>0.72377768420218425</v>
+      </c>
+      <c r="G90">
+        <v>2.2418409319417139e-14</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B91">
+        <v>0.085767926207593492</v>
+      </c>
+      <c r="C91">
+        <v>0.014453208450802633</v>
+      </c>
+      <c r="D91">
+        <v>0.021747722954366007</v>
+      </c>
+      <c r="E91">
+        <v>0.076599462046811784</v>
+      </c>
+      <c r="F91">
+        <v>0.8014316803404038</v>
+      </c>
+      <c r="G91">
+        <v>2.2384622052265881e-14</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B92">
+        <v>0.061826658214394023</v>
+      </c>
+      <c r="C92">
+        <v>0.0053657928811094227</v>
+      </c>
+      <c r="D92">
+        <v>0.0068927264849191882</v>
+      </c>
+      <c r="E92">
+        <v>0.010690418484484751</v>
+      </c>
+      <c r="F92">
+        <v>0.91522440393507043</v>
+      </c>
+      <c r="G92">
+        <v>2.2232485248948498e-14</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B93">
+        <v>0.022652175463329875</v>
+      </c>
+      <c r="C93">
+        <v>0.040180414216586094</v>
+      </c>
+      <c r="D93">
+        <v>0.00062116056647596991</v>
+      </c>
+      <c r="E93">
+        <v>0.00048809618257681959</v>
+      </c>
+      <c r="F93">
+        <v>0.025804875852173718</v>
+      </c>
+      <c r="G93">
+        <v>0.91025327771885756</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B94">
+        <v>0.01378195778450008</v>
+      </c>
+      <c r="C94">
+        <v>0.0048783653786829426</v>
+      </c>
+      <c r="D94">
+        <v>0.0010690069964523561</v>
+      </c>
+      <c r="E94">
+        <v>0.0001276296586519842</v>
+      </c>
+      <c r="F94">
+        <v>0.00016904623495757117</v>
+      </c>
+      <c r="G94">
+        <v>0.97997399394675511</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B95">
+        <v>0.34403713170273253</v>
+      </c>
+      <c r="C95">
+        <v>0.014964001469361372</v>
+      </c>
+      <c r="D95">
+        <v>0.016466848073003464</v>
+      </c>
+      <c r="E95">
+        <v>0.32456956248705354</v>
+      </c>
+      <c r="F95">
+        <v>0.001459464667493767</v>
+      </c>
+      <c r="G95">
+        <v>0.29850299160035532</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B96">
+        <v>0.016510590669953178</v>
+      </c>
+      <c r="C96">
+        <v>0.023527654559512255</v>
+      </c>
+      <c r="D96">
+        <v>0.028923320549697516</v>
+      </c>
+      <c r="E96">
+        <v>0.005946629599795872</v>
+      </c>
+      <c r="F96">
+        <v>8.4057699824443633e-05</v>
+      </c>
+      <c r="G96">
+        <v>0.92500774692121679</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B97">
+        <v>0.022796536838707662</v>
+      </c>
+      <c r="C97">
+        <v>0.00039161415661584912</v>
+      </c>
+      <c r="D97">
+        <v>4.7578299136412835e-06</v>
+      </c>
+      <c r="E97">
+        <v>7.4310595931637084e-05</v>
+      </c>
+      <c r="F97">
+        <v>2.2507425255143568e-06</v>
+      </c>
+      <c r="G97">
+        <v>0.97673052983630571</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B98">
+        <v>0.022175953646495727</v>
+      </c>
+      <c r="C98">
+        <v>0.0076200224112229322</v>
+      </c>
+      <c r="D98">
+        <v>0.011369080043123814</v>
+      </c>
+      <c r="E98">
+        <v>0.00017335636420340978</v>
+      </c>
+      <c r="F98">
+        <v>0.0002052795305991006</v>
+      </c>
+      <c r="G98">
+        <v>0.95845630800435511</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B99">
+        <v>0.0040598232607701431</v>
+      </c>
+      <c r="C99">
+        <v>0.00074268198423862216</v>
+      </c>
+      <c r="D99">
+        <v>0.00071187859379808437</v>
+      </c>
+      <c r="E99">
+        <v>0.00028515999542326026</v>
+      </c>
+      <c r="F99">
+        <v>1.999156613681271e-07</v>
+      </c>
+      <c r="G99">
+        <v>0.99420025625010866</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B100">
+        <v>0.028887082747862114</v>
+      </c>
+      <c r="C100">
+        <v>0.033499359246731059</v>
+      </c>
+      <c r="D100">
+        <v>0.0071723487095379278</v>
+      </c>
+      <c r="E100">
+        <v>0.00060864040603246408</v>
+      </c>
+      <c r="F100">
+        <v>0.046355995036090246</v>
+      </c>
+      <c r="G100">
+        <v>0.88347657385374612</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B101">
+        <v>0.090302981841763885</v>
+      </c>
+      <c r="C101">
+        <v>0.022927412074228926</v>
+      </c>
+      <c r="D101">
+        <v>0.018893430203817105</v>
+      </c>
+      <c r="E101">
+        <v>0.0022210659618556441</v>
+      </c>
+      <c r="F101">
+        <v>0.015685190801473417</v>
+      </c>
+      <c r="G101">
+        <v>0.84996991911686104</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B102">
+        <v>0.020752251944815923</v>
+      </c>
+      <c r="C102">
+        <v>0.020588216553050126</v>
+      </c>
+      <c r="D102">
+        <v>0.0075133806660111135</v>
+      </c>
+      <c r="E102">
+        <v>0.00097594032006757619</v>
+      </c>
+      <c r="F102">
+        <v>0.0042855865294723332</v>
+      </c>
+      <c r="G102">
+        <v>0.94588462398658291</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B103">
+        <v>0.028697036854939132</v>
+      </c>
+      <c r="C103">
+        <v>0.012902211238215567</v>
+      </c>
+      <c r="D103">
+        <v>0.001541013416528281</v>
+      </c>
+      <c r="E103">
+        <v>0.00036817325153405234</v>
+      </c>
+      <c r="F103">
+        <v>0.0068326170995865144</v>
+      </c>
+      <c r="G103">
+        <v>0.94965894813919638</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B104">
+        <v>0.062543371247674048</v>
+      </c>
+      <c r="C104">
+        <v>0.026084704585627519</v>
+      </c>
+      <c r="D104">
+        <v>0.061673476848689582</v>
+      </c>
+      <c r="E104">
+        <v>0.0029836521855562061</v>
+      </c>
+      <c r="F104">
+        <v>0.01089978785736909</v>
+      </c>
+      <c r="G104">
+        <v>0.83581500727508351</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B105">
+        <v>0.010692879809788912</v>
+      </c>
+      <c r="C105">
+        <v>0.010677189696579915</v>
+      </c>
+      <c r="D105">
+        <v>0.0021294840620210667</v>
+      </c>
+      <c r="E105">
+        <v>9.7265881681976964e-05</v>
+      </c>
+      <c r="F105">
+        <v>0.0027945026025410157</v>
+      </c>
+      <c r="G105">
+        <v>0.97360867794738704</v>
+      </c>
+      <c r="H105">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B106">
+        <v>0.021105582996940108</v>
+      </c>
+      <c r="C106">
+        <v>0.021718548865873988</v>
+      </c>
+      <c r="D106">
+        <v>0.001633971166900677</v>
+      </c>
+      <c r="E106">
+        <v>0.00037187330590752001</v>
+      </c>
+      <c r="F106">
+        <v>0.018117644772440634</v>
+      </c>
+      <c r="G106">
+        <v>0.93705237889193704</v>
+      </c>
+      <c r="H106">
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B107">
+        <v>0.018619394565358913</v>
+      </c>
+      <c r="C107">
+        <v>0.0088739122401058357</v>
+      </c>
+      <c r="D107">
+        <v>0.0022404380214506333</v>
+      </c>
+      <c r="E107">
+        <v>0.00051879768833647938</v>
+      </c>
+      <c r="F107">
+        <v>0.0011075992494483746</v>
+      </c>
+      <c r="G107">
+        <v>0.96863985823529974</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B108">
+        <v>0.057430740666489608</v>
+      </c>
+      <c r="C108">
+        <v>0.016596098248185347</v>
+      </c>
+      <c r="D108">
+        <v>0.02365526572672471</v>
+      </c>
+      <c r="E108">
+        <v>0.0016985730414064326</v>
+      </c>
+      <c r="F108">
+        <v>0.010836594369091804</v>
+      </c>
+      <c r="G108">
+        <v>0.88978272794810209</v>
+      </c>
+      <c r="H108">
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B109">
+        <v>0.017390083271311505</v>
+      </c>
+      <c r="C109">
+        <v>0.03466548875218349</v>
+      </c>
+      <c r="D109">
+        <v>0.0014806337011655881</v>
+      </c>
+      <c r="E109">
+        <v>0.0004198982764234374</v>
+      </c>
+      <c r="F109">
+        <v>0.012976506512226036</v>
+      </c>
+      <c r="G109">
+        <v>0.93306738948668999</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B110">
+        <v>0.030531229888874516</v>
+      </c>
+      <c r="C110">
+        <v>0.0146205420179848</v>
+      </c>
+      <c r="D110">
+        <v>0.014333814492782152</v>
+      </c>
+      <c r="E110">
+        <v>0.001779554472164526</v>
+      </c>
+      <c r="F110">
+        <v>0.0018684415644650918</v>
+      </c>
+      <c r="G110">
+        <v>0.9368664175637289</v>
+      </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B111">
+        <v>0.062007873018330349</v>
+      </c>
+      <c r="C111">
+        <v>0.019097140021665987</v>
+      </c>
+      <c r="D111">
+        <v>0.023627000082763739</v>
+      </c>
+      <c r="E111">
+        <v>0.0034808803928236213</v>
+      </c>
+      <c r="F111">
+        <v>0.009713373400814105</v>
+      </c>
+      <c r="G111">
+        <v>0.88207373308360226</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B112">
+        <v>0.0038121255484359013</v>
+      </c>
+      <c r="C112">
+        <v>0.0090610213716902088</v>
+      </c>
+      <c r="D112">
+        <v>0.00069704186230007523</v>
+      </c>
+      <c r="E112">
+        <v>5.5162692261604463e-05</v>
+      </c>
+      <c r="F112">
+        <v>0.0001225337461199896</v>
+      </c>
+      <c r="G112">
+        <v>0.98625211477919228</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B113">
+        <v>0.067075108825433563</v>
+      </c>
+      <c r="C113">
+        <v>0.0055674155907342888</v>
+      </c>
+      <c r="D113">
+        <v>0.0063376991469021914</v>
+      </c>
+      <c r="E113">
+        <v>0.0020519713371885684</v>
+      </c>
+      <c r="F113">
+        <v>0.0024178797445051784</v>
+      </c>
+      <c r="G113">
+        <v>0.91654992535523627</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B114">
+        <v>0.012643226731267627</v>
+      </c>
+      <c r="C114">
+        <v>0.022083889425489112</v>
+      </c>
+      <c r="D114">
+        <v>0.0028152346921981866</v>
+      </c>
+      <c r="E114">
+        <v>0.00046940624243698337</v>
+      </c>
+      <c r="F114">
+        <v>0.00013653982763024909</v>
+      </c>
+      <c r="G114">
+        <v>0.96185170308097789</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B115">
+        <v>0.031291532003867466</v>
+      </c>
+      <c r="C115">
+        <v>0.0052105446990944734</v>
+      </c>
+      <c r="D115">
+        <v>0.0031028378009626727</v>
+      </c>
+      <c r="E115">
+        <v>0.0010116607764100553</v>
+      </c>
+      <c r="F115">
+        <v>7.4672475108442598e-05</v>
+      </c>
+      <c r="G115">
+        <v>0.95930875224455703</v>
+      </c>
+      <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B116">
+        <v>0.012007953389161878</v>
+      </c>
+      <c r="C116">
+        <v>0.0027304135150819919</v>
+      </c>
+      <c r="D116">
+        <v>0.0001463963071821588</v>
+      </c>
+      <c r="E116">
+        <v>0.00052872611119429756</v>
+      </c>
+      <c r="F116">
+        <v>3.4771329960102958e-07</v>
+      </c>
+      <c r="G116">
+        <v>0.98458616296408008</v>
+      </c>
+      <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B117">
+        <v>0.0026444573505973097</v>
+      </c>
+      <c r="C117">
+        <v>0.00033731703060983304</v>
+      </c>
+      <c r="D117">
+        <v>1.8855475329217808e-05</v>
+      </c>
+      <c r="E117">
+        <v>1.604466044439572e-05</v>
+      </c>
+      <c r="F117">
+        <v>9.7286170379473126e-08</v>
+      </c>
+      <c r="G117">
+        <v>0.99698322819684893</v>
+      </c>
+      <c r="H117">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>